--- a/src/resources/Бакалавр (Денна)/РНП 122 КН ІСІТК 1 курс 2019-2020 (2019-12-03).xlsx
+++ b/src/resources/Бакалавр (Денна)/РНП 122 КН ІСІТК 1 курс 2019-2020 (2019-12-03).xlsx
@@ -400,7 +400,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1728,92 +1728,306 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,404 +2035,190 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -2692,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="96" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:O35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="96" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30:AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2730,184 +2730,184 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="183" t="s">
+      <c r="P1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="183"/>
-      <c r="AO1" s="183"/>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="183"/>
-      <c r="AS1" s="183"/>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="183"/>
-      <c r="AY1" s="183"/>
-      <c r="AZ1" s="183"/>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="183"/>
-      <c r="BH1" s="183"/>
-      <c r="BI1" s="183"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="96"/>
+      <c r="BI1" s="96"/>
     </row>
     <row r="2" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="183"/>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="183"/>
-      <c r="AJ2" s="183"/>
-      <c r="AK2" s="183"/>
-      <c r="AL2" s="183"/>
-      <c r="AM2" s="183"/>
-      <c r="AN2" s="183"/>
-      <c r="AO2" s="183"/>
-      <c r="AP2" s="183"/>
-      <c r="AQ2" s="183"/>
-      <c r="AR2" s="183"/>
-      <c r="AS2" s="183"/>
-      <c r="AT2" s="183"/>
-      <c r="AU2" s="183"/>
-      <c r="AV2" s="183"/>
-      <c r="AW2" s="183"/>
-      <c r="AX2" s="183"/>
-      <c r="AY2" s="183"/>
-      <c r="AZ2" s="183"/>
-      <c r="BA2" s="183"/>
-      <c r="BB2" s="183"/>
-      <c r="BC2" s="183"/>
-      <c r="BD2" s="183"/>
-      <c r="BE2" s="183"/>
-      <c r="BF2" s="183"/>
-      <c r="BG2" s="183"/>
-      <c r="BH2" s="183"/>
-      <c r="BI2" s="183"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="96"/>
+      <c r="BH2" s="96"/>
+      <c r="BI2" s="96"/>
     </row>
     <row r="3" spans="1:76" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="185" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
-      <c r="U3" s="185"/>
-      <c r="V3" s="185"/>
-      <c r="W3" s="185"/>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="185"/>
-      <c r="AG3" s="185"/>
-      <c r="AH3" s="185"/>
-      <c r="AI3" s="185"/>
-      <c r="AJ3" s="185"/>
-      <c r="AK3" s="185"/>
-      <c r="AL3" s="185"/>
-      <c r="AM3" s="185"/>
-      <c r="AN3" s="185"/>
-      <c r="AO3" s="185"/>
-      <c r="AP3" s="185"/>
-      <c r="AQ3" s="185"/>
-      <c r="AR3" s="185"/>
-      <c r="AS3" s="185"/>
-      <c r="AT3" s="185"/>
-      <c r="AU3" s="185"/>
-      <c r="AV3" s="185"/>
-      <c r="AW3" s="185"/>
-      <c r="AX3" s="185"/>
-      <c r="AY3" s="185"/>
-      <c r="AZ3" s="185"/>
-      <c r="BA3" s="185"/>
-      <c r="BB3" s="185"/>
-      <c r="BC3" s="185"/>
-      <c r="BD3" s="185"/>
-      <c r="BE3" s="185"/>
-      <c r="BF3" s="185"/>
-      <c r="BG3" s="185"/>
-      <c r="BH3" s="185"/>
-      <c r="BI3" s="185"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="98"/>
+      <c r="AS3" s="98"/>
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="98"/>
+      <c r="AX3" s="98"/>
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="98"/>
+      <c r="BC3" s="98"/>
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="98"/>
+      <c r="BH3" s="98"/>
+      <c r="BI3" s="98"/>
     </row>
     <row r="4" spans="1:76" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
@@ -2925,54 +2925,54 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="115"/>
+      <c r="AH4" s="115"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="115"/>
+      <c r="AK4" s="115"/>
+      <c r="AL4" s="115"/>
+      <c r="AM4" s="115"/>
+      <c r="AN4" s="115"/>
+      <c r="AO4" s="115"/>
+      <c r="AP4" s="115"/>
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="115"/>
+      <c r="AT4" s="115"/>
+      <c r="AU4" s="115"/>
+      <c r="AV4" s="115"/>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="115"/>
+      <c r="AY4" s="115"/>
+      <c r="AZ4" s="115"/>
+      <c r="BA4" s="115"/>
+      <c r="BB4" s="115"/>
+      <c r="BC4" s="115"/>
+      <c r="BD4" s="115"/>
+      <c r="BE4" s="115"/>
+      <c r="BF4" s="115"/>
+      <c r="BG4" s="115"/>
+      <c r="BH4" s="115"/>
+      <c r="BI4" s="115"/>
     </row>
     <row r="5" spans="1:76" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -2992,54 +2992,54 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
+      <c r="AX5" s="115"/>
+      <c r="AY5" s="115"/>
+      <c r="AZ5" s="115"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="115"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
     </row>
     <row r="6" spans="1:76" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -3059,54 +3059,54 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="186" t="s">
+      <c r="P6" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="187"/>
-      <c r="V6" s="187"/>
-      <c r="W6" s="187"/>
-      <c r="X6" s="187"/>
-      <c r="Y6" s="187"/>
-      <c r="Z6" s="187"/>
-      <c r="AA6" s="187"/>
-      <c r="AB6" s="187"/>
-      <c r="AC6" s="187"/>
-      <c r="AD6" s="187"/>
-      <c r="AE6" s="187"/>
-      <c r="AF6" s="187"/>
-      <c r="AG6" s="187"/>
-      <c r="AH6" s="187"/>
-      <c r="AI6" s="187"/>
-      <c r="AJ6" s="187"/>
-      <c r="AK6" s="187"/>
-      <c r="AL6" s="187"/>
-      <c r="AM6" s="187"/>
-      <c r="AN6" s="187"/>
-      <c r="AO6" s="187"/>
-      <c r="AP6" s="187"/>
-      <c r="AQ6" s="187"/>
-      <c r="AR6" s="187"/>
-      <c r="AS6" s="187"/>
-      <c r="AT6" s="187"/>
-      <c r="AU6" s="187"/>
-      <c r="AV6" s="187"/>
-      <c r="AW6" s="187"/>
-      <c r="AX6" s="187"/>
-      <c r="AY6" s="187"/>
-      <c r="AZ6" s="187"/>
-      <c r="BA6" s="187"/>
-      <c r="BB6" s="187"/>
-      <c r="BC6" s="187"/>
-      <c r="BD6" s="187"/>
-      <c r="BE6" s="187"/>
-      <c r="BF6" s="187"/>
-      <c r="BG6" s="187"/>
-      <c r="BH6" s="187"/>
-      <c r="BI6" s="187"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="99"/>
+      <c r="AL6" s="99"/>
+      <c r="AM6" s="99"/>
+      <c r="AN6" s="99"/>
+      <c r="AO6" s="99"/>
+      <c r="AP6" s="99"/>
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="99"/>
+      <c r="AS6" s="99"/>
+      <c r="AT6" s="99"/>
+      <c r="AU6" s="99"/>
+      <c r="AV6" s="99"/>
+      <c r="AW6" s="99"/>
+      <c r="AX6" s="99"/>
+      <c r="AY6" s="99"/>
+      <c r="AZ6" s="99"/>
+      <c r="BA6" s="99"/>
+      <c r="BB6" s="99"/>
+      <c r="BC6" s="99"/>
+      <c r="BD6" s="99"/>
+      <c r="BE6" s="99"/>
+      <c r="BF6" s="99"/>
+      <c r="BG6" s="99"/>
+      <c r="BH6" s="99"/>
+      <c r="BI6" s="99"/>
     </row>
     <row r="7" spans="1:76" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -3124,54 +3124,54 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="46"/>
-      <c r="BF7" s="46"/>
-      <c r="BG7" s="46"/>
-      <c r="BH7" s="46"/>
-      <c r="BI7" s="46"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="115"/>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="115"/>
+      <c r="AG7" s="115"/>
+      <c r="AH7" s="115"/>
+      <c r="AI7" s="115"/>
+      <c r="AJ7" s="115"/>
+      <c r="AK7" s="115"/>
+      <c r="AL7" s="115"/>
+      <c r="AM7" s="115"/>
+      <c r="AN7" s="115"/>
+      <c r="AO7" s="115"/>
+      <c r="AP7" s="115"/>
+      <c r="AQ7" s="115"/>
+      <c r="AR7" s="115"/>
+      <c r="AS7" s="115"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="115"/>
+      <c r="AV7" s="115"/>
+      <c r="AW7" s="115"/>
+      <c r="AX7" s="115"/>
+      <c r="AY7" s="115"/>
+      <c r="AZ7" s="115"/>
+      <c r="BA7" s="115"/>
+      <c r="BB7" s="115"/>
+      <c r="BC7" s="115"/>
+      <c r="BD7" s="115"/>
+      <c r="BE7" s="115"/>
+      <c r="BF7" s="115"/>
+      <c r="BG7" s="115"/>
+      <c r="BH7" s="115"/>
+      <c r="BI7" s="115"/>
       <c r="BK7" s="10"/>
       <c r="BL7" s="10"/>
       <c r="BM7" s="10"/>
@@ -3203,54 +3203,54 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="176" t="s">
+      <c r="P8" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="176"/>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="176"/>
-      <c r="AF8" s="176"/>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="176"/>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="176"/>
-      <c r="AK8" s="176"/>
-      <c r="AL8" s="176"/>
-      <c r="AM8" s="176"/>
-      <c r="AN8" s="176"/>
-      <c r="AO8" s="176"/>
-      <c r="AP8" s="176"/>
-      <c r="AQ8" s="176"/>
-      <c r="AR8" s="176"/>
-      <c r="AS8" s="176"/>
-      <c r="AT8" s="176"/>
-      <c r="AU8" s="176"/>
-      <c r="AV8" s="176"/>
-      <c r="AW8" s="176"/>
-      <c r="AX8" s="176"/>
-      <c r="AY8" s="176"/>
-      <c r="AZ8" s="176"/>
-      <c r="BA8" s="176"/>
-      <c r="BB8" s="176"/>
-      <c r="BC8" s="176"/>
-      <c r="BD8" s="176"/>
-      <c r="BE8" s="176"/>
-      <c r="BF8" s="176"/>
-      <c r="BG8" s="176"/>
-      <c r="BH8" s="176"/>
-      <c r="BI8" s="176"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="118"/>
+      <c r="AC8" s="118"/>
+      <c r="AD8" s="118"/>
+      <c r="AE8" s="118"/>
+      <c r="AF8" s="118"/>
+      <c r="AG8" s="118"/>
+      <c r="AH8" s="118"/>
+      <c r="AI8" s="118"/>
+      <c r="AJ8" s="118"/>
+      <c r="AK8" s="118"/>
+      <c r="AL8" s="118"/>
+      <c r="AM8" s="118"/>
+      <c r="AN8" s="118"/>
+      <c r="AO8" s="118"/>
+      <c r="AP8" s="118"/>
+      <c r="AQ8" s="118"/>
+      <c r="AR8" s="118"/>
+      <c r="AS8" s="118"/>
+      <c r="AT8" s="118"/>
+      <c r="AU8" s="118"/>
+      <c r="AV8" s="118"/>
+      <c r="AW8" s="118"/>
+      <c r="AX8" s="118"/>
+      <c r="AY8" s="118"/>
+      <c r="AZ8" s="118"/>
+      <c r="BA8" s="118"/>
+      <c r="BB8" s="118"/>
+      <c r="BC8" s="118"/>
+      <c r="BD8" s="118"/>
+      <c r="BE8" s="118"/>
+      <c r="BF8" s="118"/>
+      <c r="BG8" s="118"/>
+      <c r="BH8" s="118"/>
+      <c r="BI8" s="118"/>
       <c r="BK8" s="10"/>
       <c r="BL8" s="10"/>
       <c r="BM8" s="10"/>
@@ -3330,451 +3330,451 @@
       <c r="BI9" s="2"/>
     </row>
     <row r="10" spans="1:76" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="111" t="s">
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="111" t="s">
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="112"/>
-      <c r="AI10" s="112"/>
-      <c r="AJ10" s="112"/>
-      <c r="AK10" s="112"/>
-      <c r="AL10" s="112"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="111" t="s">
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="107"/>
+      <c r="AI10" s="107"/>
+      <c r="AJ10" s="107"/>
+      <c r="AK10" s="107"/>
+      <c r="AL10" s="107"/>
+      <c r="AM10" s="108"/>
+      <c r="AN10" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="AO10" s="112"/>
-      <c r="AP10" s="112"/>
-      <c r="AQ10" s="112"/>
-      <c r="AR10" s="112"/>
-      <c r="AS10" s="112"/>
-      <c r="AT10" s="112"/>
-      <c r="AU10" s="112"/>
-      <c r="AV10" s="112"/>
-      <c r="AW10" s="112"/>
-      <c r="AX10" s="112"/>
-      <c r="AY10" s="112"/>
-      <c r="AZ10" s="112"/>
-      <c r="BA10" s="112"/>
-      <c r="BB10" s="112"/>
-      <c r="BC10" s="112"/>
-      <c r="BD10" s="112"/>
-      <c r="BE10" s="112"/>
-      <c r="BF10" s="112"/>
-      <c r="BG10" s="113"/>
-      <c r="BH10" s="177" t="s">
+      <c r="AO10" s="107"/>
+      <c r="AP10" s="107"/>
+      <c r="AQ10" s="107"/>
+      <c r="AR10" s="107"/>
+      <c r="AS10" s="107"/>
+      <c r="AT10" s="107"/>
+      <c r="AU10" s="107"/>
+      <c r="AV10" s="107"/>
+      <c r="AW10" s="107"/>
+      <c r="AX10" s="107"/>
+      <c r="AY10" s="107"/>
+      <c r="AZ10" s="107"/>
+      <c r="BA10" s="107"/>
+      <c r="BB10" s="107"/>
+      <c r="BC10" s="107"/>
+      <c r="BD10" s="107"/>
+      <c r="BE10" s="107"/>
+      <c r="BF10" s="107"/>
+      <c r="BG10" s="108"/>
+      <c r="BH10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="BI10" s="178"/>
+      <c r="BI10" s="120"/>
       <c r="BJ10" s="5"/>
     </row>
     <row r="11" spans="1:76" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="114" t="s">
+      <c r="A11" s="155"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="167" t="s">
+      <c r="Q11" s="174"/>
+      <c r="R11" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="168"/>
-      <c r="T11" s="146" t="s">
+      <c r="S11" s="136"/>
+      <c r="T11" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="U11" s="119"/>
-      <c r="V11" s="161" t="s">
+      <c r="U11" s="110"/>
+      <c r="V11" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="163"/>
-      <c r="AD11" s="118" t="s">
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="130"/>
+      <c r="AA11" s="130"/>
+      <c r="AB11" s="130"/>
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" s="119"/>
-      <c r="AF11" s="118" t="s">
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="119"/>
-      <c r="AH11" s="118" t="s">
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AI11" s="119"/>
-      <c r="AJ11" s="130" t="s">
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="AK11" s="131"/>
-      <c r="AL11" s="131"/>
-      <c r="AM11" s="132"/>
-      <c r="AN11" s="125" t="s">
+      <c r="AK11" s="148"/>
+      <c r="AL11" s="148"/>
+      <c r="AM11" s="149"/>
+      <c r="AN11" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="AO11" s="101"/>
-      <c r="AP11" s="136" t="s">
+      <c r="AO11" s="104"/>
+      <c r="AP11" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AQ11" s="136"/>
-      <c r="AR11" s="136"/>
-      <c r="AS11" s="136"/>
-      <c r="AT11" s="136"/>
-      <c r="AU11" s="136"/>
-      <c r="AV11" s="136"/>
-      <c r="AW11" s="136"/>
-      <c r="AX11" s="101" t="s">
+      <c r="AQ11" s="153"/>
+      <c r="AR11" s="153"/>
+      <c r="AS11" s="153"/>
+      <c r="AT11" s="153"/>
+      <c r="AU11" s="153"/>
+      <c r="AV11" s="153"/>
+      <c r="AW11" s="153"/>
+      <c r="AX11" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AY11" s="101"/>
-      <c r="AZ11" s="118" t="s">
+      <c r="AY11" s="104"/>
+      <c r="AZ11" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="BA11" s="119"/>
-      <c r="BB11" s="118" t="s">
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="BC11" s="119"/>
-      <c r="BD11" s="188" t="s">
+      <c r="BC11" s="110"/>
+      <c r="BD11" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="BE11" s="188"/>
-      <c r="BF11" s="189"/>
-      <c r="BG11" s="190"/>
-      <c r="BH11" s="179"/>
-      <c r="BI11" s="180"/>
+      <c r="BE11" s="100"/>
+      <c r="BF11" s="101"/>
+      <c r="BG11" s="102"/>
+      <c r="BH11" s="121"/>
+      <c r="BI11" s="122"/>
     </row>
     <row r="12" spans="1:76" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="118" t="s">
+      <c r="A12" s="155"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="165"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="119"/>
-      <c r="X12" s="164" t="s">
+      <c r="W12" s="110"/>
+      <c r="X12" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="Y12" s="165"/>
-      <c r="Z12" s="165"/>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="165"/>
-      <c r="AC12" s="166"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="133"/>
-      <c r="AK12" s="134"/>
-      <c r="AL12" s="134"/>
-      <c r="AM12" s="135"/>
-      <c r="AN12" s="125"/>
-      <c r="AO12" s="101"/>
-      <c r="AP12" s="101" t="s">
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
+      <c r="AB12" s="133"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="112"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="112"/>
+      <c r="AJ12" s="150"/>
+      <c r="AK12" s="151"/>
+      <c r="AL12" s="151"/>
+      <c r="AM12" s="152"/>
+      <c r="AN12" s="177"/>
+      <c r="AO12" s="104"/>
+      <c r="AP12" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="AQ12" s="101"/>
-      <c r="AR12" s="136" t="s">
+      <c r="AQ12" s="104"/>
+      <c r="AR12" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="AS12" s="136"/>
-      <c r="AT12" s="136"/>
-      <c r="AU12" s="136"/>
-      <c r="AV12" s="136"/>
-      <c r="AW12" s="136"/>
-      <c r="AX12" s="101"/>
-      <c r="AY12" s="101"/>
-      <c r="AZ12" s="120"/>
-      <c r="BA12" s="121"/>
-      <c r="BB12" s="120"/>
-      <c r="BC12" s="121"/>
-      <c r="BD12" s="188"/>
-      <c r="BE12" s="188"/>
-      <c r="BF12" s="188"/>
-      <c r="BG12" s="191"/>
-      <c r="BH12" s="179"/>
-      <c r="BI12" s="180"/>
+      <c r="AS12" s="153"/>
+      <c r="AT12" s="153"/>
+      <c r="AU12" s="153"/>
+      <c r="AV12" s="153"/>
+      <c r="AW12" s="153"/>
+      <c r="AX12" s="104"/>
+      <c r="AY12" s="104"/>
+      <c r="AZ12" s="111"/>
+      <c r="BA12" s="112"/>
+      <c r="BB12" s="111"/>
+      <c r="BC12" s="112"/>
+      <c r="BD12" s="100"/>
+      <c r="BE12" s="100"/>
+      <c r="BF12" s="100"/>
+      <c r="BG12" s="103"/>
+      <c r="BH12" s="121"/>
+      <c r="BI12" s="122"/>
     </row>
     <row r="13" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="118" t="s">
+      <c r="A13" s="155"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="165"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="95" t="s">
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="118" t="s">
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="120"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="120"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="103" t="s">
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="112"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="112"/>
+      <c r="AH13" s="111"/>
+      <c r="AI13" s="112"/>
+      <c r="AJ13" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="AK13" s="104"/>
-      <c r="AL13" s="103" t="s">
+      <c r="AK13" s="185"/>
+      <c r="AL13" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="AM13" s="127"/>
-      <c r="AN13" s="125"/>
-      <c r="AO13" s="101"/>
-      <c r="AP13" s="101"/>
-      <c r="AQ13" s="101"/>
-      <c r="AR13" s="174" t="s">
+      <c r="AM13" s="180"/>
+      <c r="AN13" s="177"/>
+      <c r="AO13" s="104"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="104"/>
+      <c r="AR13" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="AS13" s="174"/>
-      <c r="AT13" s="95" t="s">
+      <c r="AS13" s="116"/>
+      <c r="AT13" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="AU13" s="149"/>
-      <c r="AV13" s="101" t="s">
+      <c r="AU13" s="168"/>
+      <c r="AV13" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="AW13" s="101"/>
-      <c r="AX13" s="101"/>
-      <c r="AY13" s="101"/>
-      <c r="AZ13" s="120"/>
-      <c r="BA13" s="121"/>
-      <c r="BB13" s="120"/>
-      <c r="BC13" s="121"/>
-      <c r="BD13" s="101" t="s">
+      <c r="AW13" s="104"/>
+      <c r="AX13" s="104"/>
+      <c r="AY13" s="104"/>
+      <c r="AZ13" s="111"/>
+      <c r="BA13" s="112"/>
+      <c r="BB13" s="111"/>
+      <c r="BC13" s="112"/>
+      <c r="BD13" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="BE13" s="101"/>
-      <c r="BF13" s="101" t="s">
+      <c r="BE13" s="104"/>
+      <c r="BF13" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="BG13" s="109"/>
-      <c r="BH13" s="179"/>
-      <c r="BI13" s="180"/>
+      <c r="BG13" s="188"/>
+      <c r="BH13" s="121"/>
+      <c r="BI13" s="122"/>
     </row>
     <row r="14" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="121"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="121"/>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="106"/>
-      <c r="AL14" s="105"/>
-      <c r="AM14" s="128"/>
-      <c r="AN14" s="125"/>
-      <c r="AO14" s="101"/>
-      <c r="AP14" s="101"/>
-      <c r="AQ14" s="101"/>
-      <c r="AR14" s="174"/>
-      <c r="AS14" s="174"/>
-      <c r="AT14" s="150"/>
-      <c r="AU14" s="151"/>
-      <c r="AV14" s="101"/>
-      <c r="AW14" s="101"/>
-      <c r="AX14" s="101"/>
-      <c r="AY14" s="101"/>
-      <c r="AZ14" s="120"/>
-      <c r="BA14" s="121"/>
-      <c r="BB14" s="120"/>
-      <c r="BC14" s="121"/>
-      <c r="BD14" s="101"/>
-      <c r="BE14" s="101"/>
-      <c r="BF14" s="101"/>
-      <c r="BG14" s="109"/>
-      <c r="BH14" s="179"/>
-      <c r="BI14" s="180"/>
+      <c r="A14" s="155"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="165"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="192"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="112"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="112"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="112"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="112"/>
+      <c r="AJ14" s="181"/>
+      <c r="AK14" s="186"/>
+      <c r="AL14" s="181"/>
+      <c r="AM14" s="182"/>
+      <c r="AN14" s="177"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="104"/>
+      <c r="AR14" s="116"/>
+      <c r="AS14" s="116"/>
+      <c r="AT14" s="169"/>
+      <c r="AU14" s="170"/>
+      <c r="AV14" s="104"/>
+      <c r="AW14" s="104"/>
+      <c r="AX14" s="104"/>
+      <c r="AY14" s="104"/>
+      <c r="AZ14" s="111"/>
+      <c r="BA14" s="112"/>
+      <c r="BB14" s="111"/>
+      <c r="BC14" s="112"/>
+      <c r="BD14" s="104"/>
+      <c r="BE14" s="104"/>
+      <c r="BF14" s="104"/>
+      <c r="BG14" s="188"/>
+      <c r="BH14" s="121"/>
+      <c r="BI14" s="122"/>
     </row>
     <row r="15" spans="1:76" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="139"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="123"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="122"/>
-      <c r="AC15" s="123"/>
-      <c r="AD15" s="122"/>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="122"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="122"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="107"/>
-      <c r="AK15" s="108"/>
-      <c r="AL15" s="107"/>
-      <c r="AM15" s="129"/>
-      <c r="AN15" s="126"/>
-      <c r="AO15" s="102"/>
-      <c r="AP15" s="102"/>
-      <c r="AQ15" s="102"/>
-      <c r="AR15" s="175"/>
-      <c r="AS15" s="175"/>
-      <c r="AT15" s="152"/>
-      <c r="AU15" s="153"/>
-      <c r="AV15" s="102"/>
-      <c r="AW15" s="102"/>
-      <c r="AX15" s="102"/>
-      <c r="AY15" s="102"/>
-      <c r="AZ15" s="122"/>
-      <c r="BA15" s="123"/>
-      <c r="BB15" s="122"/>
-      <c r="BC15" s="123"/>
-      <c r="BD15" s="102"/>
-      <c r="BE15" s="102"/>
-      <c r="BF15" s="102"/>
-      <c r="BG15" s="110"/>
-      <c r="BH15" s="181"/>
-      <c r="BI15" s="182"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="193"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="183"/>
+      <c r="AK15" s="187"/>
+      <c r="AL15" s="183"/>
+      <c r="AM15" s="184"/>
+      <c r="AN15" s="178"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="117"/>
+      <c r="AS15" s="117"/>
+      <c r="AT15" s="171"/>
+      <c r="AU15" s="172"/>
+      <c r="AV15" s="105"/>
+      <c r="AW15" s="105"/>
+      <c r="AX15" s="105"/>
+      <c r="AY15" s="105"/>
+      <c r="AZ15" s="113"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="113"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="105"/>
+      <c r="BE15" s="105"/>
+      <c r="BF15" s="105"/>
+      <c r="BG15" s="189"/>
+      <c r="BH15" s="123"/>
+      <c r="BI15" s="124"/>
     </row>
     <row r="16" spans="1:76" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36"/>
@@ -3843,2363 +3843,2363 @@
       <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="171"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="73" t="s">
+      <c r="B17" s="139"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="73"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="73"/>
-      <c r="BF17" s="73"/>
-      <c r="BG17" s="74"/>
-      <c r="BH17" s="124"/>
-      <c r="BI17" s="72"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
+      <c r="S17" s="142"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="142"/>
+      <c r="V17" s="142"/>
+      <c r="W17" s="142"/>
+      <c r="X17" s="142"/>
+      <c r="Y17" s="142"/>
+      <c r="Z17" s="142"/>
+      <c r="AA17" s="142"/>
+      <c r="AB17" s="142"/>
+      <c r="AC17" s="142"/>
+      <c r="AD17" s="142"/>
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="142"/>
+      <c r="AH17" s="142"/>
+      <c r="AI17" s="142"/>
+      <c r="AJ17" s="142"/>
+      <c r="AK17" s="142"/>
+      <c r="AL17" s="142"/>
+      <c r="AM17" s="142"/>
+      <c r="AN17" s="142"/>
+      <c r="AO17" s="142"/>
+      <c r="AP17" s="142"/>
+      <c r="AQ17" s="142"/>
+      <c r="AR17" s="142"/>
+      <c r="AS17" s="142"/>
+      <c r="AT17" s="142"/>
+      <c r="AU17" s="142"/>
+      <c r="AV17" s="142"/>
+      <c r="AW17" s="142"/>
+      <c r="AX17" s="142"/>
+      <c r="AY17" s="142"/>
+      <c r="AZ17" s="142"/>
+      <c r="BA17" s="142"/>
+      <c r="BB17" s="142"/>
+      <c r="BC17" s="142"/>
+      <c r="BD17" s="142"/>
+      <c r="BE17" s="142"/>
+      <c r="BF17" s="142"/>
+      <c r="BG17" s="143"/>
+      <c r="BH17" s="160"/>
+      <c r="BI17" s="55"/>
     </row>
     <row r="18" spans="1:61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="73" t="s">
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="73"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="73"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="74"/>
-      <c r="BH18" s="75"/>
-      <c r="BI18" s="53"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="142"/>
+      <c r="Z18" s="142"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="142"/>
+      <c r="AC18" s="142"/>
+      <c r="AD18" s="142"/>
+      <c r="AE18" s="142"/>
+      <c r="AF18" s="142"/>
+      <c r="AG18" s="142"/>
+      <c r="AH18" s="142"/>
+      <c r="AI18" s="142"/>
+      <c r="AJ18" s="142"/>
+      <c r="AK18" s="142"/>
+      <c r="AL18" s="142"/>
+      <c r="AM18" s="142"/>
+      <c r="AN18" s="142"/>
+      <c r="AO18" s="142"/>
+      <c r="AP18" s="142"/>
+      <c r="AQ18" s="142"/>
+      <c r="AR18" s="142"/>
+      <c r="AS18" s="142"/>
+      <c r="AT18" s="142"/>
+      <c r="AU18" s="142"/>
+      <c r="AV18" s="142"/>
+      <c r="AW18" s="142"/>
+      <c r="AX18" s="142"/>
+      <c r="AY18" s="142"/>
+      <c r="AZ18" s="142"/>
+      <c r="BA18" s="142"/>
+      <c r="BB18" s="142"/>
+      <c r="BC18" s="142"/>
+      <c r="BD18" s="142"/>
+      <c r="BE18" s="142"/>
+      <c r="BF18" s="142"/>
+      <c r="BG18" s="143"/>
+      <c r="BH18" s="47"/>
+      <c r="BI18" s="46"/>
     </row>
     <row r="19" spans="1:61" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="75">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="47">
         <v>11</v>
       </c>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="75">
+      <c r="Q19" s="46"/>
+      <c r="R19" s="47">
         <f>P19*30</f>
         <v>330</v>
       </c>
-      <c r="S19" s="52"/>
-      <c r="T19" s="60">
+      <c r="S19" s="45"/>
+      <c r="T19" s="50">
         <v>150</v>
       </c>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60">
+      <c r="U19" s="50"/>
+      <c r="V19" s="50">
         <f>SUM(X19:AC19)</f>
         <v>64</v>
       </c>
-      <c r="W19" s="60"/>
-      <c r="X19" s="51">
+      <c r="W19" s="50"/>
+      <c r="X19" s="44">
         <v>32</v>
       </c>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="51">
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="44">
         <v>32</v>
       </c>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="51">
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="44">
         <f>T19-V19</f>
         <v>86</v>
       </c>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="55"/>
-      <c r="AJ19" s="51" t="s">
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="53"/>
-      <c r="AN19" s="75">
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="47">
         <f>R19-T19</f>
         <v>180</v>
       </c>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="60">
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="50">
         <f>SUM(AR19:AW19)</f>
         <v>68</v>
       </c>
-      <c r="AQ19" s="60"/>
-      <c r="AR19" s="51">
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="44">
         <v>34</v>
       </c>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="51">
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="44">
         <v>34</v>
       </c>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="60">
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="50">
         <f>AN19-AP19</f>
         <v>112</v>
       </c>
-      <c r="AY19" s="60"/>
-      <c r="AZ19" s="54"/>
-      <c r="BA19" s="55"/>
-      <c r="BB19" s="54"/>
-      <c r="BC19" s="55"/>
-      <c r="BD19" s="51" t="s">
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="51"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="51"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="60"/>
-      <c r="BG19" s="72"/>
-      <c r="BH19" s="58" t="s">
+      <c r="BE19" s="45"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="55"/>
+      <c r="BH19" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="BI19" s="59"/>
+      <c r="BI19" s="62"/>
     </row>
     <row r="20" spans="1:61" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="51">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="44">
         <v>6</v>
       </c>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="75">
+      <c r="Q20" s="59"/>
+      <c r="R20" s="47">
         <f>P20*30</f>
         <v>180</v>
       </c>
-      <c r="S20" s="52"/>
-      <c r="T20" s="60">
+      <c r="S20" s="45"/>
+      <c r="T20" s="50">
         <v>90</v>
       </c>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60">
+      <c r="U20" s="50"/>
+      <c r="V20" s="50">
         <f>SUM(X20:AC20)</f>
         <v>30</v>
       </c>
-      <c r="W20" s="60"/>
-      <c r="X20" s="51">
+      <c r="W20" s="50"/>
+      <c r="X20" s="44">
         <v>4</v>
       </c>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="51">
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="44">
         <v>26</v>
       </c>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="60">
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="50">
         <f>T20-V20</f>
         <v>60</v>
       </c>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="55"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="60" t="s">
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="75">
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="47">
         <f>R20-T20</f>
         <v>90</v>
       </c>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="60">
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="50">
         <f>SUM(AR20:AW20)</f>
         <v>30</v>
       </c>
-      <c r="AQ20" s="60"/>
-      <c r="AR20" s="51">
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="44">
         <v>4</v>
       </c>
-      <c r="AS20" s="52"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="51">
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="44">
         <v>26</v>
       </c>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="60">
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="50">
         <f>AN20-AP20</f>
         <v>60</v>
       </c>
-      <c r="AY20" s="60"/>
-      <c r="AZ20" s="54"/>
-      <c r="BA20" s="55"/>
-      <c r="BB20" s="54"/>
-      <c r="BC20" s="55"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="52"/>
-      <c r="BF20" s="60" t="s">
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="51"/>
+      <c r="BA20" s="52"/>
+      <c r="BB20" s="51"/>
+      <c r="BC20" s="52"/>
+      <c r="BD20" s="44"/>
+      <c r="BE20" s="45"/>
+      <c r="BF20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="BG20" s="72"/>
-      <c r="BH20" s="58" t="s">
+      <c r="BG20" s="55"/>
+      <c r="BH20" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="BI20" s="59"/>
+      <c r="BI20" s="62"/>
     </row>
     <row r="21" spans="1:61" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="75">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="47">
         <v>7</v>
       </c>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="75">
+      <c r="Q21" s="46"/>
+      <c r="R21" s="47">
         <f>P21*30</f>
         <v>210</v>
       </c>
-      <c r="S21" s="52"/>
-      <c r="T21" s="60">
+      <c r="S21" s="45"/>
+      <c r="T21" s="50">
         <v>90</v>
       </c>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60">
+      <c r="U21" s="50"/>
+      <c r="V21" s="50">
         <f>SUM(X21:AC21)</f>
         <v>40</v>
       </c>
-      <c r="W21" s="60"/>
-      <c r="X21" s="51">
+      <c r="W21" s="50"/>
+      <c r="X21" s="44">
         <v>18</v>
       </c>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="51">
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="44">
         <v>22</v>
       </c>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="51">
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="44">
         <f>T21-V21</f>
         <v>50</v>
       </c>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="51" t="s">
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="75">
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="47">
         <f>R21-T21</f>
         <v>120</v>
       </c>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="60">
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="50">
         <f>SUM(AR21:AW21)</f>
         <v>44</v>
       </c>
-      <c r="AQ21" s="60"/>
-      <c r="AR21" s="51">
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="44">
         <v>20</v>
       </c>
-      <c r="AS21" s="52"/>
-      <c r="AT21" s="51">
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="44">
         <v>24</v>
       </c>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="60">
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="50">
         <f>AN21-AP21</f>
         <v>76</v>
       </c>
-      <c r="AY21" s="60"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="55"/>
-      <c r="BB21" s="54"/>
-      <c r="BC21" s="55"/>
-      <c r="BD21" s="51" t="s">
+      <c r="AY21" s="50"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="52"/>
+      <c r="BB21" s="51"/>
+      <c r="BC21" s="52"/>
+      <c r="BD21" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="51"/>
-      <c r="BG21" s="53"/>
-      <c r="BH21" s="58" t="s">
+      <c r="BE21" s="45"/>
+      <c r="BF21" s="44"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="BI21" s="59"/>
+      <c r="BI21" s="62"/>
     </row>
     <row r="22" spans="1:61" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="51">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="44">
         <v>5</v>
       </c>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="75">
+      <c r="Q22" s="59"/>
+      <c r="R22" s="47">
         <f>P22*30</f>
         <v>150</v>
       </c>
-      <c r="S22" s="52"/>
-      <c r="T22" s="60">
+      <c r="S22" s="45"/>
+      <c r="T22" s="50">
         <f>R22</f>
         <v>150</v>
       </c>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60">
+      <c r="U22" s="50"/>
+      <c r="V22" s="50">
         <f>SUM(X22:AC22)</f>
         <v>50</v>
       </c>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60">
+      <c r="W22" s="50"/>
+      <c r="X22" s="50">
         <v>30</v>
       </c>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="60">
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="50">
         <v>20</v>
       </c>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60">
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50">
         <f>T22-V22</f>
         <v>100</v>
       </c>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="54"/>
-      <c r="AG22" s="55"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="55"/>
-      <c r="AJ22" s="51" t="s">
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="75"/>
-      <c r="AO22" s="52"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="52"/>
-      <c r="AR22" s="93"/>
-      <c r="AS22" s="94"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="94"/>
-      <c r="AV22" s="93"/>
-      <c r="AW22" s="94"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="52"/>
-      <c r="AZ22" s="54"/>
-      <c r="BA22" s="55"/>
-      <c r="BB22" s="54"/>
-      <c r="BC22" s="55"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="52"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="58" t="s">
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="47"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="48"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="52"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="52"/>
+      <c r="BD22" s="44"/>
+      <c r="BE22" s="45"/>
+      <c r="BF22" s="44"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="BI22" s="59"/>
+      <c r="BI22" s="62"/>
     </row>
     <row r="23" spans="1:61" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="51">
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="44">
         <v>3</v>
       </c>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="75">
+      <c r="Q23" s="59"/>
+      <c r="R23" s="47">
         <f>P23*30</f>
         <v>90</v>
       </c>
-      <c r="S23" s="52"/>
-      <c r="T23" s="60">
+      <c r="S23" s="45"/>
+      <c r="T23" s="50">
         <f>R23</f>
         <v>90</v>
       </c>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60">
+      <c r="U23" s="50"/>
+      <c r="V23" s="50">
         <f>SUM(X23:AC23)</f>
         <v>30</v>
       </c>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60">
+      <c r="W23" s="50"/>
+      <c r="X23" s="50">
         <v>10</v>
       </c>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="60">
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="50">
         <v>20</v>
       </c>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="60">
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50">
         <f>T23-V23</f>
         <v>60</v>
       </c>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="55"/>
-      <c r="AJ23" s="51" t="s">
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AK23" s="52"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="75"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="52"/>
-      <c r="AR23" s="93"/>
-      <c r="AS23" s="94"/>
-      <c r="AT23" s="93"/>
-      <c r="AU23" s="94"/>
-      <c r="AV23" s="93"/>
-      <c r="AW23" s="94"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="52"/>
-      <c r="AZ23" s="54"/>
-      <c r="BA23" s="55"/>
-      <c r="BB23" s="54"/>
-      <c r="BC23" s="55"/>
-      <c r="BD23" s="51"/>
-      <c r="BE23" s="52"/>
-      <c r="BF23" s="51"/>
-      <c r="BG23" s="53"/>
-      <c r="BH23" s="58" t="s">
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="47"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="48"/>
+      <c r="AU23" s="49"/>
+      <c r="AV23" s="48"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="52"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="52"/>
+      <c r="BD23" s="44"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="44"/>
+      <c r="BG23" s="46"/>
+      <c r="BH23" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="BI23" s="59"/>
+      <c r="BI23" s="62"/>
     </row>
     <row r="24" spans="1:61" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="73" t="s">
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="73"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="73"/>
-      <c r="AX24" s="73"/>
-      <c r="AY24" s="73"/>
-      <c r="AZ24" s="73"/>
-      <c r="BA24" s="73"/>
-      <c r="BB24" s="73"/>
-      <c r="BC24" s="73"/>
-      <c r="BD24" s="73"/>
-      <c r="BE24" s="73"/>
-      <c r="BF24" s="73"/>
-      <c r="BG24" s="74"/>
-      <c r="BH24" s="81"/>
-      <c r="BI24" s="82"/>
+      <c r="Q24" s="142"/>
+      <c r="R24" s="142"/>
+      <c r="S24" s="142"/>
+      <c r="T24" s="142"/>
+      <c r="U24" s="142"/>
+      <c r="V24" s="142"/>
+      <c r="W24" s="142"/>
+      <c r="X24" s="142"/>
+      <c r="Y24" s="142"/>
+      <c r="Z24" s="142"/>
+      <c r="AA24" s="142"/>
+      <c r="AB24" s="142"/>
+      <c r="AC24" s="142"/>
+      <c r="AD24" s="142"/>
+      <c r="AE24" s="142"/>
+      <c r="AF24" s="142"/>
+      <c r="AG24" s="142"/>
+      <c r="AH24" s="142"/>
+      <c r="AI24" s="142"/>
+      <c r="AJ24" s="142"/>
+      <c r="AK24" s="142"/>
+      <c r="AL24" s="142"/>
+      <c r="AM24" s="142"/>
+      <c r="AN24" s="142"/>
+      <c r="AO24" s="142"/>
+      <c r="AP24" s="142"/>
+      <c r="AQ24" s="142"/>
+      <c r="AR24" s="142"/>
+      <c r="AS24" s="142"/>
+      <c r="AT24" s="142"/>
+      <c r="AU24" s="142"/>
+      <c r="AV24" s="142"/>
+      <c r="AW24" s="142"/>
+      <c r="AX24" s="142"/>
+      <c r="AY24" s="142"/>
+      <c r="AZ24" s="142"/>
+      <c r="BA24" s="142"/>
+      <c r="BB24" s="142"/>
+      <c r="BC24" s="142"/>
+      <c r="BD24" s="142"/>
+      <c r="BE24" s="142"/>
+      <c r="BF24" s="142"/>
+      <c r="BG24" s="143"/>
+      <c r="BH24" s="127"/>
+      <c r="BI24" s="128"/>
     </row>
     <row r="25" spans="1:61" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="51">
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="44">
         <v>3</v>
       </c>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="75">
+      <c r="Q25" s="59"/>
+      <c r="R25" s="47">
         <f>P25*30</f>
         <v>90</v>
       </c>
-      <c r="S25" s="52"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="55"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="75">
+      <c r="S25" s="45"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="47">
         <f>R25-T25</f>
         <v>90</v>
       </c>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="60">
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="50">
         <f>SUM(AR25:AW25)</f>
         <v>30</v>
       </c>
-      <c r="AQ25" s="60"/>
-      <c r="AR25" s="51">
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="44">
         <v>18</v>
       </c>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="51"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="51">
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="44">
         <v>12</v>
       </c>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="60">
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="50">
         <f>AN25-AP25</f>
         <v>60</v>
       </c>
-      <c r="AY25" s="60"/>
-      <c r="AZ25" s="54"/>
-      <c r="BA25" s="55"/>
-      <c r="BB25" s="54"/>
-      <c r="BC25" s="55"/>
-      <c r="BD25" s="51"/>
-      <c r="BE25" s="52"/>
-      <c r="BF25" s="60" t="s">
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="52"/>
+      <c r="BB25" s="51"/>
+      <c r="BC25" s="52"/>
+      <c r="BD25" s="44"/>
+      <c r="BE25" s="45"/>
+      <c r="BF25" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="BG25" s="72"/>
-      <c r="BH25" s="58" t="s">
+      <c r="BG25" s="55"/>
+      <c r="BH25" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="BI25" s="59"/>
+      <c r="BI25" s="62"/>
     </row>
     <row r="26" spans="1:61" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="51">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="44">
         <v>3</v>
       </c>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="75">
+      <c r="Q26" s="59"/>
+      <c r="R26" s="47">
         <f>P26*30</f>
         <v>90</v>
       </c>
-      <c r="S26" s="52"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="53"/>
-      <c r="AN26" s="86">
+      <c r="S26" s="45"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="91">
         <f>R26-T26</f>
         <v>90</v>
       </c>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="60">
+      <c r="AO26" s="195"/>
+      <c r="AP26" s="50">
         <f>SUM(AR26:AW26)</f>
         <v>30</v>
       </c>
-      <c r="AQ26" s="60"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="52"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="51">
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="44">
         <v>30</v>
       </c>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="84">
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="198">
         <f>AN26-AP26</f>
         <v>60</v>
       </c>
-      <c r="AY26" s="84"/>
-      <c r="AZ26" s="54"/>
-      <c r="BA26" s="55"/>
-      <c r="BB26" s="54"/>
-      <c r="BC26" s="55"/>
-      <c r="BD26" s="51"/>
-      <c r="BE26" s="52"/>
-      <c r="BF26" s="60" t="s">
+      <c r="AY26" s="198"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="52"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="52"/>
+      <c r="BD26" s="44"/>
+      <c r="BE26" s="45"/>
+      <c r="BF26" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="BG26" s="72"/>
-      <c r="BH26" s="58" t="s">
+      <c r="BG26" s="55"/>
+      <c r="BH26" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="BI26" s="59"/>
+      <c r="BI26" s="62"/>
     </row>
     <row r="27" spans="1:61" s="5" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="64">
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="71">
         <f>SUM(P19:Q23,P25:Q26)</f>
         <v>38</v>
       </c>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="64">
+      <c r="Q27" s="72"/>
+      <c r="R27" s="71">
         <f>SUM(R19:S23,R25:S26)</f>
         <v>1140</v>
       </c>
-      <c r="S27" s="83"/>
-      <c r="T27" s="64">
+      <c r="S27" s="72"/>
+      <c r="T27" s="71">
         <f>SUM(T19:U23,T25:U26)</f>
         <v>570</v>
       </c>
-      <c r="U27" s="83"/>
-      <c r="V27" s="64">
+      <c r="U27" s="72"/>
+      <c r="V27" s="71">
         <f>SUM(V19:W23,V25:W26)</f>
         <v>214</v>
       </c>
-      <c r="W27" s="83"/>
-      <c r="X27" s="64">
+      <c r="W27" s="72"/>
+      <c r="X27" s="71">
         <f>SUM(X19:Y23,X25:Y26)</f>
         <v>94</v>
       </c>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="64">
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="71">
         <f>SUM(Z19:AA23,Z25:AA26)</f>
         <v>22</v>
       </c>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="64">
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="71">
         <f>SUM(AB19:AC23,AB25:AC26)</f>
         <v>98</v>
       </c>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="64">
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="71">
         <f>SUM(AD19:AE23,AD25:AE26)</f>
         <v>356</v>
       </c>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="64">
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="71">
         <f>SUM(AF19:AG23,AF25:AG26)</f>
         <v>0</v>
       </c>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="64">
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="71">
         <f>SUM(AH19:AI23,AH25:AI26)</f>
         <v>0</v>
       </c>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="64">
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="71">
         <v>3</v>
       </c>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="64">
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="71">
         <v>2</v>
       </c>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="64">
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="71">
         <f>SUM(AN19:AO23,AN25:AO26)</f>
         <v>570</v>
       </c>
-      <c r="AO27" s="83"/>
-      <c r="AP27" s="64">
+      <c r="AO27" s="72"/>
+      <c r="AP27" s="71">
         <f>SUM(AP19:AQ23,AP25:AQ26)</f>
         <v>202</v>
       </c>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="64">
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="71">
         <f>SUM(AR19:AS23,AR25:AS26)</f>
         <v>76</v>
       </c>
-      <c r="AS27" s="83"/>
-      <c r="AT27" s="64">
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="71">
         <f>SUM(AT19:AU23,AT25:AU26)</f>
         <v>24</v>
       </c>
-      <c r="AU27" s="83"/>
-      <c r="AV27" s="64">
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="71">
         <f>SUM(AV19:AW23,AV25:AW26)</f>
         <v>102</v>
       </c>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="64">
+      <c r="AW27" s="72"/>
+      <c r="AX27" s="71">
         <f>SUM(AX19:AY23,AX25:AY26)</f>
         <v>368</v>
       </c>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="64">
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="71">
         <f>SUM(AZ19:BA23,AZ25:BA26)</f>
         <v>0</v>
       </c>
-      <c r="BA27" s="83"/>
-      <c r="BB27" s="64">
+      <c r="BA27" s="72"/>
+      <c r="BB27" s="71">
         <f>SUM(BB19:BC23,BB25:BC26)</f>
         <v>0</v>
       </c>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="64">
+      <c r="BC27" s="72"/>
+      <c r="BD27" s="71">
         <v>2</v>
       </c>
-      <c r="BE27" s="83"/>
-      <c r="BF27" s="64">
+      <c r="BE27" s="72"/>
+      <c r="BF27" s="71">
         <v>3</v>
       </c>
-      <c r="BG27" s="83"/>
-      <c r="BH27" s="49"/>
-      <c r="BI27" s="50"/>
+      <c r="BG27" s="72"/>
+      <c r="BH27" s="196"/>
+      <c r="BI27" s="197"/>
     </row>
     <row r="28" spans="1:61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="158" t="s">
+      <c r="B28" s="199"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="200"/>
+      <c r="L28" s="200"/>
+      <c r="M28" s="200"/>
+      <c r="N28" s="200"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="159"/>
-      <c r="S28" s="159"/>
-      <c r="T28" s="159"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="159"/>
-      <c r="X28" s="159"/>
-      <c r="Y28" s="159"/>
-      <c r="Z28" s="159"/>
-      <c r="AA28" s="159"/>
-      <c r="AB28" s="159"/>
-      <c r="AC28" s="159"/>
-      <c r="AD28" s="159"/>
-      <c r="AE28" s="159"/>
-      <c r="AF28" s="159"/>
-      <c r="AG28" s="159"/>
-      <c r="AH28" s="159"/>
-      <c r="AI28" s="159"/>
-      <c r="AJ28" s="159"/>
-      <c r="AK28" s="159"/>
-      <c r="AL28" s="159"/>
-      <c r="AM28" s="159"/>
-      <c r="AN28" s="159"/>
-      <c r="AO28" s="159"/>
-      <c r="AP28" s="159"/>
-      <c r="AQ28" s="159"/>
-      <c r="AR28" s="159"/>
-      <c r="AS28" s="159"/>
-      <c r="AT28" s="159"/>
-      <c r="AU28" s="159"/>
-      <c r="AV28" s="159"/>
-      <c r="AW28" s="159"/>
-      <c r="AX28" s="159"/>
-      <c r="AY28" s="159"/>
-      <c r="AZ28" s="159"/>
-      <c r="BA28" s="159"/>
-      <c r="BB28" s="159"/>
-      <c r="BC28" s="159"/>
-      <c r="BD28" s="159"/>
-      <c r="BE28" s="159"/>
-      <c r="BF28" s="159"/>
-      <c r="BG28" s="160"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="145"/>
+      <c r="AN28" s="145"/>
+      <c r="AO28" s="145"/>
+      <c r="AP28" s="145"/>
+      <c r="AQ28" s="145"/>
+      <c r="AR28" s="145"/>
+      <c r="AS28" s="145"/>
+      <c r="AT28" s="145"/>
+      <c r="AU28" s="145"/>
+      <c r="AV28" s="145"/>
+      <c r="AW28" s="145"/>
+      <c r="AX28" s="145"/>
+      <c r="AY28" s="145"/>
+      <c r="AZ28" s="145"/>
+      <c r="BA28" s="145"/>
+      <c r="BB28" s="145"/>
+      <c r="BC28" s="145"/>
+      <c r="BD28" s="145"/>
+      <c r="BE28" s="145"/>
+      <c r="BF28" s="145"/>
+      <c r="BG28" s="146"/>
       <c r="BH28" s="18"/>
       <c r="BI28" s="34"/>
     </row>
     <row r="29" spans="1:61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="73" t="s">
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="73"/>
-      <c r="AY29" s="73"/>
-      <c r="AZ29" s="73"/>
-      <c r="BA29" s="73"/>
-      <c r="BB29" s="73"/>
-      <c r="BC29" s="73"/>
-      <c r="BD29" s="73"/>
-      <c r="BE29" s="73"/>
-      <c r="BF29" s="73"/>
-      <c r="BG29" s="74"/>
-      <c r="BH29" s="81"/>
-      <c r="BI29" s="82"/>
+      <c r="Q29" s="142"/>
+      <c r="R29" s="142"/>
+      <c r="S29" s="142"/>
+      <c r="T29" s="142"/>
+      <c r="U29" s="142"/>
+      <c r="V29" s="142"/>
+      <c r="W29" s="142"/>
+      <c r="X29" s="142"/>
+      <c r="Y29" s="142"/>
+      <c r="Z29" s="142"/>
+      <c r="AA29" s="142"/>
+      <c r="AB29" s="142"/>
+      <c r="AC29" s="142"/>
+      <c r="AD29" s="142"/>
+      <c r="AE29" s="142"/>
+      <c r="AF29" s="142"/>
+      <c r="AG29" s="142"/>
+      <c r="AH29" s="142"/>
+      <c r="AI29" s="142"/>
+      <c r="AJ29" s="142"/>
+      <c r="AK29" s="142"/>
+      <c r="AL29" s="142"/>
+      <c r="AM29" s="142"/>
+      <c r="AN29" s="142"/>
+      <c r="AO29" s="142"/>
+      <c r="AP29" s="142"/>
+      <c r="AQ29" s="142"/>
+      <c r="AR29" s="142"/>
+      <c r="AS29" s="142"/>
+      <c r="AT29" s="142"/>
+      <c r="AU29" s="142"/>
+      <c r="AV29" s="142"/>
+      <c r="AW29" s="142"/>
+      <c r="AX29" s="142"/>
+      <c r="AY29" s="142"/>
+      <c r="AZ29" s="142"/>
+      <c r="BA29" s="142"/>
+      <c r="BB29" s="142"/>
+      <c r="BC29" s="142"/>
+      <c r="BD29" s="142"/>
+      <c r="BE29" s="142"/>
+      <c r="BF29" s="142"/>
+      <c r="BG29" s="143"/>
+      <c r="BH29" s="127"/>
+      <c r="BI29" s="128"/>
     </row>
     <row r="30" spans="1:61" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="75">
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="47">
         <v>5</v>
       </c>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="75">
+      <c r="Q30" s="46"/>
+      <c r="R30" s="47">
         <f>P30*30</f>
         <v>150</v>
       </c>
-      <c r="S30" s="52"/>
-      <c r="T30" s="60">
+      <c r="S30" s="45"/>
+      <c r="T30" s="50">
         <f>R30</f>
         <v>150</v>
       </c>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60">
+      <c r="U30" s="50"/>
+      <c r="V30" s="50">
         <f>SUM(X30:AC30)</f>
-        <v>60</v>
-      </c>
-      <c r="W30" s="60"/>
-      <c r="X30" s="51">
+        <v>58</v>
+      </c>
+      <c r="W30" s="50"/>
+      <c r="X30" s="44">
         <v>30</v>
       </c>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="51">
-        <v>20</v>
-      </c>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="51">
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="44">
+        <v>18</v>
+      </c>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="44">
         <v>10</v>
       </c>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="51">
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="44">
         <f>T30-V30</f>
-        <v>90</v>
-      </c>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="53"/>
-      <c r="AN30" s="75"/>
-      <c r="AO30" s="52"/>
-      <c r="AP30" s="60"/>
-      <c r="AQ30" s="60"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="51"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="60"/>
-      <c r="AY30" s="60"/>
-      <c r="AZ30" s="54"/>
-      <c r="BA30" s="55"/>
-      <c r="BB30" s="54"/>
-      <c r="BC30" s="55"/>
-      <c r="BD30" s="51"/>
-      <c r="BE30" s="52"/>
-      <c r="BF30" s="60"/>
-      <c r="BG30" s="72"/>
-      <c r="BH30" s="79" t="s">
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="46"/>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="50"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="45"/>
+      <c r="AV30" s="44"/>
+      <c r="AW30" s="45"/>
+      <c r="AX30" s="50"/>
+      <c r="AY30" s="50"/>
+      <c r="AZ30" s="51"/>
+      <c r="BA30" s="52"/>
+      <c r="BB30" s="51"/>
+      <c r="BC30" s="52"/>
+      <c r="BD30" s="44"/>
+      <c r="BE30" s="45"/>
+      <c r="BF30" s="50"/>
+      <c r="BG30" s="55"/>
+      <c r="BH30" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="BI30" s="80"/>
+      <c r="BI30" s="126"/>
     </row>
     <row r="31" spans="1:61" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="75">
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="47">
         <v>3</v>
       </c>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="75">
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47">
         <f>P31*30</f>
         <v>90</v>
       </c>
-      <c r="S31" s="52"/>
-      <c r="T31" s="60">
+      <c r="S31" s="45"/>
+      <c r="T31" s="50">
         <f>R31</f>
         <v>90</v>
       </c>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60">
+      <c r="U31" s="50"/>
+      <c r="V31" s="50">
         <f>SUM(X31:AC31)</f>
         <v>40</v>
       </c>
-      <c r="W31" s="60"/>
-      <c r="X31" s="51">
+      <c r="W31" s="50"/>
+      <c r="X31" s="44">
         <v>20</v>
       </c>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="51">
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="44">
         <v>10</v>
       </c>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="51">
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="44">
         <v>10</v>
       </c>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="51">
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="44">
         <f>T31-V31</f>
         <v>50</v>
       </c>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="54"/>
-      <c r="AG31" s="55"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="51" t="s">
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="51"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="75"/>
-      <c r="AO31" s="52"/>
-      <c r="AP31" s="60"/>
-      <c r="AQ31" s="60"/>
-      <c r="AR31" s="51"/>
-      <c r="AS31" s="52"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="51"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="60"/>
-      <c r="AY31" s="60"/>
-      <c r="AZ31" s="54"/>
-      <c r="BA31" s="55"/>
-      <c r="BB31" s="54"/>
-      <c r="BC31" s="55"/>
-      <c r="BD31" s="51"/>
-      <c r="BE31" s="52"/>
-      <c r="BF31" s="51"/>
-      <c r="BG31" s="53"/>
-      <c r="BH31" s="58" t="s">
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="46"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="50"/>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="44"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="44"/>
+      <c r="AW31" s="45"/>
+      <c r="AX31" s="50"/>
+      <c r="AY31" s="50"/>
+      <c r="AZ31" s="51"/>
+      <c r="BA31" s="52"/>
+      <c r="BB31" s="51"/>
+      <c r="BC31" s="52"/>
+      <c r="BD31" s="44"/>
+      <c r="BE31" s="45"/>
+      <c r="BF31" s="44"/>
+      <c r="BG31" s="46"/>
+      <c r="BH31" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="BI31" s="59"/>
+      <c r="BI31" s="62"/>
     </row>
     <row r="32" spans="1:61" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="73" t="s">
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="73"/>
-      <c r="AG32" s="73"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="73"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="73"/>
-      <c r="AN32" s="73"/>
-      <c r="AO32" s="73"/>
-      <c r="AP32" s="73"/>
-      <c r="AQ32" s="73"/>
-      <c r="AR32" s="73"/>
-      <c r="AS32" s="73"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="73"/>
-      <c r="AV32" s="73"/>
-      <c r="AW32" s="73"/>
-      <c r="AX32" s="73"/>
-      <c r="AY32" s="73"/>
-      <c r="AZ32" s="73"/>
-      <c r="BA32" s="73"/>
-      <c r="BB32" s="73"/>
-      <c r="BC32" s="73"/>
-      <c r="BD32" s="73"/>
-      <c r="BE32" s="73"/>
-      <c r="BF32" s="73"/>
-      <c r="BG32" s="74"/>
-      <c r="BH32" s="81"/>
-      <c r="BI32" s="82"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="142"/>
+      <c r="S32" s="142"/>
+      <c r="T32" s="142"/>
+      <c r="U32" s="142"/>
+      <c r="V32" s="142"/>
+      <c r="W32" s="142"/>
+      <c r="X32" s="142"/>
+      <c r="Y32" s="142"/>
+      <c r="Z32" s="142"/>
+      <c r="AA32" s="142"/>
+      <c r="AB32" s="142"/>
+      <c r="AC32" s="142"/>
+      <c r="AD32" s="142"/>
+      <c r="AE32" s="142"/>
+      <c r="AF32" s="142"/>
+      <c r="AG32" s="142"/>
+      <c r="AH32" s="142"/>
+      <c r="AI32" s="142"/>
+      <c r="AJ32" s="142"/>
+      <c r="AK32" s="142"/>
+      <c r="AL32" s="142"/>
+      <c r="AM32" s="142"/>
+      <c r="AN32" s="142"/>
+      <c r="AO32" s="142"/>
+      <c r="AP32" s="142"/>
+      <c r="AQ32" s="142"/>
+      <c r="AR32" s="142"/>
+      <c r="AS32" s="142"/>
+      <c r="AT32" s="142"/>
+      <c r="AU32" s="142"/>
+      <c r="AV32" s="142"/>
+      <c r="AW32" s="142"/>
+      <c r="AX32" s="142"/>
+      <c r="AY32" s="142"/>
+      <c r="AZ32" s="142"/>
+      <c r="BA32" s="142"/>
+      <c r="BB32" s="142"/>
+      <c r="BC32" s="142"/>
+      <c r="BD32" s="142"/>
+      <c r="BE32" s="142"/>
+      <c r="BF32" s="142"/>
+      <c r="BG32" s="143"/>
+      <c r="BH32" s="127"/>
+      <c r="BI32" s="128"/>
     </row>
     <row r="33" spans="1:61" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="75">
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="202"/>
+      <c r="M33" s="202"/>
+      <c r="N33" s="202"/>
+      <c r="O33" s="203"/>
+      <c r="P33" s="47">
         <v>3</v>
       </c>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="75">
+      <c r="Q33" s="46"/>
+      <c r="R33" s="47">
         <f>P33*30</f>
         <v>90</v>
       </c>
-      <c r="S33" s="52"/>
-      <c r="T33" s="60">
+      <c r="S33" s="45"/>
+      <c r="T33" s="50">
         <f>R33</f>
         <v>90</v>
       </c>
-      <c r="U33" s="60"/>
-      <c r="V33" s="60">
+      <c r="U33" s="50"/>
+      <c r="V33" s="50">
         <f>SUM(X33:AC33)</f>
         <v>44</v>
       </c>
-      <c r="W33" s="60"/>
-      <c r="X33" s="51">
+      <c r="W33" s="50"/>
+      <c r="X33" s="44">
         <v>14</v>
       </c>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="51">
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="44">
         <v>30</v>
       </c>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="51">
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="44">
         <f>T33-V33</f>
         <v>46</v>
       </c>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="55"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="52"/>
-      <c r="AL33" s="60" t="s">
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AM33" s="72"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="60"/>
-      <c r="AP33" s="60"/>
-      <c r="AQ33" s="60"/>
-      <c r="AR33" s="60"/>
-      <c r="AS33" s="60"/>
-      <c r="AT33" s="60"/>
-      <c r="AU33" s="60"/>
-      <c r="AV33" s="60"/>
-      <c r="AW33" s="60"/>
-      <c r="AX33" s="60"/>
-      <c r="AY33" s="60"/>
-      <c r="AZ33" s="60"/>
-      <c r="BA33" s="60"/>
-      <c r="BB33" s="60"/>
-      <c r="BC33" s="60"/>
-      <c r="BD33" s="60"/>
-      <c r="BE33" s="60"/>
-      <c r="BF33" s="60"/>
-      <c r="BG33" s="72"/>
-      <c r="BH33" s="79" t="s">
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="50"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="50"/>
+      <c r="AU33" s="50"/>
+      <c r="AV33" s="50"/>
+      <c r="AW33" s="50"/>
+      <c r="AX33" s="50"/>
+      <c r="AY33" s="50"/>
+      <c r="AZ33" s="50"/>
+      <c r="BA33" s="50"/>
+      <c r="BB33" s="50"/>
+      <c r="BC33" s="50"/>
+      <c r="BD33" s="50"/>
+      <c r="BE33" s="50"/>
+      <c r="BF33" s="50"/>
+      <c r="BG33" s="55"/>
+      <c r="BH33" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="BI33" s="80"/>
+      <c r="BI33" s="126"/>
     </row>
     <row r="34" spans="1:61" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="86">
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="91">
         <v>5.5</v>
       </c>
-      <c r="Q34" s="157"/>
-      <c r="R34" s="75">
+      <c r="Q34" s="92"/>
+      <c r="R34" s="47">
         <f>P34*30</f>
         <v>165</v>
       </c>
-      <c r="S34" s="52"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="52"/>
-      <c r="AL34" s="60"/>
-      <c r="AM34" s="72"/>
-      <c r="AN34" s="75">
+      <c r="S34" s="45"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="47">
         <f>R34-T34</f>
         <v>165</v>
       </c>
-      <c r="AO34" s="52"/>
-      <c r="AP34" s="60">
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="50">
         <f>SUM(AR34:AW34)</f>
         <v>64</v>
       </c>
-      <c r="AQ34" s="60"/>
-      <c r="AR34" s="51">
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="44">
         <v>32</v>
       </c>
-      <c r="AS34" s="52"/>
-      <c r="AT34" s="51">
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="44">
         <v>32</v>
       </c>
-      <c r="AU34" s="52"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="52"/>
-      <c r="AX34" s="60">
+      <c r="AU34" s="45"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="50">
         <f>AN34-AP34</f>
         <v>101</v>
       </c>
-      <c r="AY34" s="60"/>
-      <c r="AZ34" s="54"/>
-      <c r="BA34" s="55"/>
-      <c r="BB34" s="54"/>
-      <c r="BC34" s="55"/>
-      <c r="BD34" s="51" t="s">
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="52"/>
+      <c r="BB34" s="51"/>
+      <c r="BC34" s="52"/>
+      <c r="BD34" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BE34" s="52"/>
-      <c r="BF34" s="60"/>
-      <c r="BG34" s="72"/>
-      <c r="BH34" s="79" t="s">
+      <c r="BE34" s="45"/>
+      <c r="BF34" s="50"/>
+      <c r="BG34" s="55"/>
+      <c r="BH34" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="BI34" s="80"/>
+      <c r="BI34" s="126"/>
     </row>
     <row r="35" spans="1:61" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="86">
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="91">
         <v>5.5</v>
       </c>
-      <c r="Q35" s="157"/>
-      <c r="R35" s="75">
+      <c r="Q35" s="92"/>
+      <c r="R35" s="47">
         <f>P35*30</f>
         <v>165</v>
       </c>
-      <c r="S35" s="52"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="55"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="52"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="72"/>
-      <c r="AN35" s="75">
+      <c r="S35" s="45"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="55"/>
+      <c r="AN35" s="47">
         <f>R35-T35</f>
         <v>165</v>
       </c>
-      <c r="AO35" s="52"/>
-      <c r="AP35" s="60">
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="50">
         <f>SUM(AR35:AW35)</f>
         <v>68</v>
       </c>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="51">
+      <c r="AQ35" s="50"/>
+      <c r="AR35" s="44">
         <v>32</v>
       </c>
-      <c r="AS35" s="52"/>
-      <c r="AT35" s="51">
+      <c r="AS35" s="45"/>
+      <c r="AT35" s="44">
         <v>36</v>
       </c>
-      <c r="AU35" s="52"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="52"/>
-      <c r="AX35" s="60">
+      <c r="AU35" s="45"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="45"/>
+      <c r="AX35" s="50">
         <f>AN35-AP35</f>
         <v>97</v>
       </c>
-      <c r="AY35" s="60"/>
-      <c r="AZ35" s="54"/>
-      <c r="BA35" s="55"/>
-      <c r="BB35" s="54"/>
-      <c r="BC35" s="55"/>
-      <c r="BD35" s="51" t="s">
+      <c r="AY35" s="50"/>
+      <c r="AZ35" s="51"/>
+      <c r="BA35" s="52"/>
+      <c r="BB35" s="51"/>
+      <c r="BC35" s="52"/>
+      <c r="BD35" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BE35" s="52"/>
-      <c r="BF35" s="51"/>
-      <c r="BG35" s="53"/>
-      <c r="BH35" s="58" t="s">
+      <c r="BE35" s="45"/>
+      <c r="BF35" s="44"/>
+      <c r="BG35" s="46"/>
+      <c r="BH35" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="BI35" s="59"/>
+      <c r="BI35" s="62"/>
     </row>
     <row r="36" spans="1:61" s="5" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="64">
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="71">
         <f>SUM(P30:Q32,P33:Q35)</f>
         <v>22</v>
       </c>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="64">
+      <c r="Q36" s="73"/>
+      <c r="R36" s="71">
         <f>SUM(R30:S32,R33:S35)</f>
         <v>660</v>
       </c>
-      <c r="S36" s="65"/>
-      <c r="T36" s="64">
+      <c r="S36" s="73"/>
+      <c r="T36" s="71">
         <f>SUM(T30:U32,T33:U35)</f>
         <v>330</v>
       </c>
-      <c r="U36" s="65"/>
-      <c r="V36" s="64">
+      <c r="U36" s="73"/>
+      <c r="V36" s="71">
         <f>SUM(V30:W32,V33:W35)</f>
-        <v>144</v>
-      </c>
-      <c r="W36" s="65"/>
-      <c r="X36" s="64">
+        <v>142</v>
+      </c>
+      <c r="W36" s="73"/>
+      <c r="X36" s="71">
         <f>SUM(X30:Y32,X33:Y35)</f>
         <v>64</v>
       </c>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="64">
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="71">
         <f>SUM(Z30:AA32,Z33:AA35)</f>
-        <v>30</v>
-      </c>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="64">
+        <v>28</v>
+      </c>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="71">
         <f>SUM(AB30:AC32,AB33:AC35)</f>
         <v>50</v>
       </c>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="64">
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="71">
         <f>SUM(AD30:AE32,AD33:AE35)</f>
-        <v>186</v>
-      </c>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="64">
+        <v>188</v>
+      </c>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="71">
         <f>SUM(AF30:AG32,AF33:AG35)</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="64">
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="71">
         <f>SUM(AH30:AI32,AH33:AI35)</f>
         <v>0</v>
       </c>
-      <c r="AI36" s="65"/>
-      <c r="AJ36" s="64">
+      <c r="AI36" s="73"/>
+      <c r="AJ36" s="71">
         <v>2</v>
       </c>
-      <c r="AK36" s="65"/>
-      <c r="AL36" s="64">
+      <c r="AK36" s="73"/>
+      <c r="AL36" s="71">
         <v>1</v>
       </c>
-      <c r="AM36" s="65"/>
-      <c r="AN36" s="64">
+      <c r="AM36" s="73"/>
+      <c r="AN36" s="71">
         <f>SUM(AN30:AO32,AN33:AO35)</f>
         <v>330</v>
       </c>
-      <c r="AO36" s="65"/>
-      <c r="AP36" s="64">
+      <c r="AO36" s="73"/>
+      <c r="AP36" s="71">
         <f>SUM(AP30:AQ32,AP33:AQ35)</f>
         <v>132</v>
       </c>
-      <c r="AQ36" s="65"/>
-      <c r="AR36" s="64">
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="71">
         <f>SUM(AR30:AS32,AR33:AS35)</f>
         <v>64</v>
       </c>
-      <c r="AS36" s="65"/>
-      <c r="AT36" s="64">
+      <c r="AS36" s="73"/>
+      <c r="AT36" s="71">
         <f>SUM(AT30:AU32,AT33:AU35)</f>
         <v>68</v>
       </c>
-      <c r="AU36" s="65"/>
-      <c r="AV36" s="64">
+      <c r="AU36" s="73"/>
+      <c r="AV36" s="71">
         <f>SUM(AV30:AW32,AV33:AW35)</f>
         <v>0</v>
       </c>
-      <c r="AW36" s="65"/>
-      <c r="AX36" s="64">
+      <c r="AW36" s="73"/>
+      <c r="AX36" s="71">
         <f>SUM(AX30:AY32,AX33:AY35)</f>
         <v>198</v>
       </c>
-      <c r="AY36" s="65"/>
-      <c r="AZ36" s="64">
+      <c r="AY36" s="73"/>
+      <c r="AZ36" s="71">
         <f>SUM(AZ30:BA32,AZ33:BA35)</f>
         <v>0</v>
       </c>
-      <c r="BA36" s="65"/>
-      <c r="BB36" s="64">
+      <c r="BA36" s="73"/>
+      <c r="BB36" s="71">
         <f>SUM(BB30:BC32,BB33:BC35)</f>
         <v>0</v>
       </c>
-      <c r="BC36" s="65"/>
-      <c r="BD36" s="64">
+      <c r="BC36" s="73"/>
+      <c r="BD36" s="71">
         <v>2</v>
       </c>
-      <c r="BE36" s="65"/>
-      <c r="BF36" s="64">
+      <c r="BE36" s="73"/>
+      <c r="BF36" s="71">
         <v>0</v>
       </c>
-      <c r="BG36" s="65"/>
-      <c r="BH36" s="49"/>
-      <c r="BI36" s="50"/>
+      <c r="BG36" s="73"/>
+      <c r="BH36" s="196"/>
+      <c r="BI36" s="197"/>
     </row>
     <row r="37" spans="1:61" s="5" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35"/>
-      <c r="B37" s="154" t="s">
+      <c r="B37" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="155"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="156"/>
-      <c r="P37" s="44">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="53">
         <f>P27+P36</f>
         <v>60</v>
       </c>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="44">
+      <c r="Q37" s="54"/>
+      <c r="R37" s="53">
         <f>R27+R36</f>
         <v>1800</v>
       </c>
-      <c r="S37" s="45"/>
-      <c r="T37" s="44">
+      <c r="S37" s="54"/>
+      <c r="T37" s="53">
         <f>T27+T36</f>
         <v>900</v>
       </c>
-      <c r="U37" s="45"/>
-      <c r="V37" s="44">
+      <c r="U37" s="54"/>
+      <c r="V37" s="53">
         <f>V27+V36</f>
-        <v>358</v>
-      </c>
-      <c r="W37" s="45"/>
-      <c r="X37" s="44">
+        <v>356</v>
+      </c>
+      <c r="W37" s="54"/>
+      <c r="X37" s="53">
         <f>X27+X36</f>
         <v>158</v>
       </c>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="44">
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="53">
         <f>Z27+Z36</f>
-        <v>52</v>
-      </c>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="44">
+        <v>50</v>
+      </c>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="53">
         <f>AB27+AB36</f>
         <v>148</v>
       </c>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="44">
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="53">
         <f>AD27+AD36</f>
-        <v>542</v>
-      </c>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="44">
+        <v>544</v>
+      </c>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="53">
         <f>AF27+AF36</f>
         <v>0</v>
       </c>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="44">
+      <c r="AG37" s="54"/>
+      <c r="AH37" s="53">
         <f>AH27+AH36</f>
         <v>0</v>
       </c>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="44">
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="53">
         <f>AJ27+AJ36</f>
         <v>5</v>
       </c>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="44">
+      <c r="AK37" s="54"/>
+      <c r="AL37" s="53">
         <f>AL27+AL36</f>
         <v>3</v>
       </c>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="44">
+      <c r="AM37" s="54"/>
+      <c r="AN37" s="53">
         <f>AN27+AN36</f>
         <v>900</v>
       </c>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="44">
+      <c r="AO37" s="54"/>
+      <c r="AP37" s="53">
         <f>AP27+AP36</f>
         <v>334</v>
       </c>
-      <c r="AQ37" s="45"/>
-      <c r="AR37" s="44">
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="53">
         <f>AR27+AR36</f>
         <v>140</v>
       </c>
-      <c r="AS37" s="45"/>
-      <c r="AT37" s="44">
+      <c r="AS37" s="54"/>
+      <c r="AT37" s="53">
         <f>AT27+AT36</f>
         <v>92</v>
       </c>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="44">
+      <c r="AU37" s="54"/>
+      <c r="AV37" s="53">
         <f>AV27+AV36</f>
         <v>102</v>
       </c>
-      <c r="AW37" s="45"/>
-      <c r="AX37" s="44">
+      <c r="AW37" s="54"/>
+      <c r="AX37" s="53">
         <f>AX27+AX36</f>
         <v>566</v>
       </c>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="44">
+      <c r="AY37" s="54"/>
+      <c r="AZ37" s="53">
         <f>AZ27+AZ36</f>
         <v>0</v>
       </c>
-      <c r="BA37" s="45"/>
-      <c r="BB37" s="44">
+      <c r="BA37" s="54"/>
+      <c r="BB37" s="53">
         <f>BB27+BB36</f>
         <v>0</v>
       </c>
-      <c r="BC37" s="45"/>
-      <c r="BD37" s="44">
+      <c r="BC37" s="54"/>
+      <c r="BD37" s="53">
         <f>BD27+BD36</f>
         <v>4</v>
       </c>
-      <c r="BE37" s="45"/>
-      <c r="BF37" s="44">
+      <c r="BE37" s="54"/>
+      <c r="BF37" s="53">
         <f>BF27+BF36</f>
         <v>3</v>
       </c>
-      <c r="BG37" s="45"/>
-      <c r="BH37" s="47"/>
-      <c r="BI37" s="48"/>
+      <c r="BG37" s="54"/>
+      <c r="BH37" s="63"/>
+      <c r="BI37" s="64"/>
     </row>
     <row r="38" spans="1:61" s="19" customFormat="1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="193" t="s">
+      <c r="A38" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="194"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="194"/>
-      <c r="L38" s="194"/>
-      <c r="M38" s="194"/>
-      <c r="N38" s="194"/>
-      <c r="O38" s="194"/>
-      <c r="P38" s="194"/>
-      <c r="Q38" s="194"/>
-      <c r="R38" s="194"/>
-      <c r="S38" s="195"/>
-      <c r="T38" s="196">
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="84"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="86">
         <f>T37/20</f>
         <v>45</v>
       </c>
-      <c r="U38" s="197"/>
-      <c r="V38" s="197"/>
-      <c r="W38" s="197"/>
-      <c r="X38" s="197"/>
-      <c r="Y38" s="197"/>
-      <c r="Z38" s="197"/>
-      <c r="AA38" s="197"/>
-      <c r="AB38" s="197"/>
-      <c r="AC38" s="197"/>
-      <c r="AD38" s="197"/>
-      <c r="AE38" s="197"/>
-      <c r="AF38" s="197"/>
-      <c r="AG38" s="197"/>
-      <c r="AH38" s="197"/>
-      <c r="AI38" s="197"/>
-      <c r="AJ38" s="197"/>
-      <c r="AK38" s="197"/>
-      <c r="AL38" s="197"/>
-      <c r="AM38" s="198"/>
-      <c r="AN38" s="192">
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="87"/>
+      <c r="Y38" s="87"/>
+      <c r="Z38" s="87"/>
+      <c r="AA38" s="87"/>
+      <c r="AB38" s="87"/>
+      <c r="AC38" s="87"/>
+      <c r="AD38" s="87"/>
+      <c r="AE38" s="87"/>
+      <c r="AF38" s="87"/>
+      <c r="AG38" s="87"/>
+      <c r="AH38" s="87"/>
+      <c r="AI38" s="87"/>
+      <c r="AJ38" s="87"/>
+      <c r="AK38" s="87"/>
+      <c r="AL38" s="87"/>
+      <c r="AM38" s="88"/>
+      <c r="AN38" s="76">
         <f>AN37/20</f>
         <v>45</v>
       </c>
-      <c r="AO38" s="192"/>
-      <c r="AP38" s="192"/>
-      <c r="AQ38" s="192"/>
-      <c r="AR38" s="192"/>
-      <c r="AS38" s="192"/>
-      <c r="AT38" s="192"/>
-      <c r="AU38" s="192"/>
-      <c r="AV38" s="192"/>
-      <c r="AW38" s="192"/>
-      <c r="AX38" s="192"/>
-      <c r="AY38" s="192"/>
-      <c r="AZ38" s="192"/>
-      <c r="BA38" s="192"/>
-      <c r="BB38" s="192"/>
-      <c r="BC38" s="192"/>
-      <c r="BD38" s="192"/>
-      <c r="BE38" s="192"/>
-      <c r="BF38" s="192"/>
-      <c r="BG38" s="192"/>
-      <c r="BH38" s="199"/>
-      <c r="BI38" s="200"/>
+      <c r="AO38" s="76"/>
+      <c r="AP38" s="76"/>
+      <c r="AQ38" s="76"/>
+      <c r="AR38" s="76"/>
+      <c r="AS38" s="76"/>
+      <c r="AT38" s="76"/>
+      <c r="AU38" s="76"/>
+      <c r="AV38" s="76"/>
+      <c r="AW38" s="76"/>
+      <c r="AX38" s="76"/>
+      <c r="AY38" s="76"/>
+      <c r="AZ38" s="76"/>
+      <c r="BA38" s="76"/>
+      <c r="BB38" s="76"/>
+      <c r="BC38" s="76"/>
+      <c r="BD38" s="76"/>
+      <c r="BE38" s="76"/>
+      <c r="BF38" s="76"/>
+      <c r="BG38" s="76"/>
+      <c r="BH38" s="89"/>
+      <c r="BI38" s="90"/>
     </row>
     <row r="39" spans="1:61" s="19" customFormat="1" ht="24.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="67"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="69">
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="80">
         <f>V37/17.5</f>
-        <v>20.457142857142856</v>
-      </c>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="70"/>
-      <c r="AA39" s="70"/>
-      <c r="AB39" s="70"/>
-      <c r="AC39" s="70"/>
-      <c r="AD39" s="70"/>
-      <c r="AE39" s="70"/>
-      <c r="AF39" s="70"/>
-      <c r="AG39" s="70"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="70"/>
-      <c r="AJ39" s="70"/>
-      <c r="AK39" s="70"/>
-      <c r="AL39" s="70"/>
-      <c r="AM39" s="71"/>
-      <c r="AN39" s="69">
+        <v>20.342857142857142</v>
+      </c>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
+      <c r="W39" s="81"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="81"/>
+      <c r="Z39" s="81"/>
+      <c r="AA39" s="81"/>
+      <c r="AB39" s="81"/>
+      <c r="AC39" s="81"/>
+      <c r="AD39" s="81"/>
+      <c r="AE39" s="81"/>
+      <c r="AF39" s="81"/>
+      <c r="AG39" s="81"/>
+      <c r="AH39" s="81"/>
+      <c r="AI39" s="81"/>
+      <c r="AJ39" s="81"/>
+      <c r="AK39" s="81"/>
+      <c r="AL39" s="81"/>
+      <c r="AM39" s="82"/>
+      <c r="AN39" s="80">
         <f>AP37/17.5</f>
         <v>19.085714285714285</v>
       </c>
-      <c r="AO39" s="70"/>
-      <c r="AP39" s="70"/>
-      <c r="AQ39" s="70"/>
-      <c r="AR39" s="70"/>
-      <c r="AS39" s="70"/>
-      <c r="AT39" s="70"/>
-      <c r="AU39" s="70"/>
-      <c r="AV39" s="70"/>
-      <c r="AW39" s="70"/>
-      <c r="AX39" s="70"/>
-      <c r="AY39" s="70"/>
-      <c r="AZ39" s="70"/>
-      <c r="BA39" s="70"/>
-      <c r="BB39" s="70"/>
-      <c r="BC39" s="70"/>
-      <c r="BD39" s="70"/>
-      <c r="BE39" s="70"/>
-      <c r="BF39" s="70"/>
-      <c r="BG39" s="71"/>
-      <c r="BH39" s="56"/>
-      <c r="BI39" s="57"/>
+      <c r="AO39" s="81"/>
+      <c r="AP39" s="81"/>
+      <c r="AQ39" s="81"/>
+      <c r="AR39" s="81"/>
+      <c r="AS39" s="81"/>
+      <c r="AT39" s="81"/>
+      <c r="AU39" s="81"/>
+      <c r="AV39" s="81"/>
+      <c r="AW39" s="81"/>
+      <c r="AX39" s="81"/>
+      <c r="AY39" s="81"/>
+      <c r="AZ39" s="81"/>
+      <c r="BA39" s="81"/>
+      <c r="BB39" s="81"/>
+      <c r="BC39" s="81"/>
+      <c r="BD39" s="81"/>
+      <c r="BE39" s="81"/>
+      <c r="BF39" s="81"/>
+      <c r="BG39" s="82"/>
+      <c r="BH39" s="74"/>
+      <c r="BI39" s="75"/>
     </row>
     <row r="40" spans="1:61" s="19" customFormat="1" ht="24.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="69">
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="80">
         <f>V37/13</f>
-        <v>27.53846153846154</v>
-      </c>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="70"/>
-      <c r="Z40" s="70"/>
-      <c r="AA40" s="70"/>
-      <c r="AB40" s="70"/>
-      <c r="AC40" s="70"/>
-      <c r="AD40" s="70"/>
-      <c r="AE40" s="70"/>
-      <c r="AF40" s="70"/>
-      <c r="AG40" s="70"/>
-      <c r="AH40" s="70"/>
-      <c r="AI40" s="70"/>
-      <c r="AJ40" s="70"/>
-      <c r="AK40" s="70"/>
-      <c r="AL40" s="70"/>
-      <c r="AM40" s="71"/>
-      <c r="AN40" s="69">
+        <v>27.384615384615383</v>
+      </c>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="81"/>
+      <c r="AD40" s="81"/>
+      <c r="AE40" s="81"/>
+      <c r="AF40" s="81"/>
+      <c r="AG40" s="81"/>
+      <c r="AH40" s="81"/>
+      <c r="AI40" s="81"/>
+      <c r="AJ40" s="81"/>
+      <c r="AK40" s="81"/>
+      <c r="AL40" s="81"/>
+      <c r="AM40" s="82"/>
+      <c r="AN40" s="80">
         <f>AP37/15</f>
         <v>22.266666666666666</v>
       </c>
-      <c r="AO40" s="70"/>
-      <c r="AP40" s="70"/>
-      <c r="AQ40" s="70"/>
-      <c r="AR40" s="70"/>
-      <c r="AS40" s="70"/>
-      <c r="AT40" s="70"/>
-      <c r="AU40" s="70"/>
-      <c r="AV40" s="70"/>
-      <c r="AW40" s="70"/>
-      <c r="AX40" s="70"/>
-      <c r="AY40" s="70"/>
-      <c r="AZ40" s="70"/>
-      <c r="BA40" s="70"/>
-      <c r="BB40" s="70"/>
-      <c r="BC40" s="70"/>
-      <c r="BD40" s="70"/>
-      <c r="BE40" s="70"/>
-      <c r="BF40" s="70"/>
-      <c r="BG40" s="71"/>
-      <c r="BH40" s="56"/>
-      <c r="BI40" s="57"/>
+      <c r="AO40" s="81"/>
+      <c r="AP40" s="81"/>
+      <c r="AQ40" s="81"/>
+      <c r="AR40" s="81"/>
+      <c r="AS40" s="81"/>
+      <c r="AT40" s="81"/>
+      <c r="AU40" s="81"/>
+      <c r="AV40" s="81"/>
+      <c r="AW40" s="81"/>
+      <c r="AX40" s="81"/>
+      <c r="AY40" s="81"/>
+      <c r="AZ40" s="81"/>
+      <c r="BA40" s="81"/>
+      <c r="BB40" s="81"/>
+      <c r="BC40" s="81"/>
+      <c r="BD40" s="81"/>
+      <c r="BE40" s="81"/>
+      <c r="BF40" s="81"/>
+      <c r="BG40" s="82"/>
+      <c r="BH40" s="74"/>
+      <c r="BI40" s="75"/>
     </row>
     <row r="41" spans="1:61" s="19" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="35"/>
-      <c r="B41" s="201" t="s">
+      <c r="B41" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="202"/>
-      <c r="D41" s="202"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="202"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="202"/>
-      <c r="M41" s="202"/>
-      <c r="N41" s="202"/>
-      <c r="O41" s="203"/>
-      <c r="P41" s="44">
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="53">
         <f>SUM(P33:Q35,P25:Q26)</f>
         <v>20</v>
       </c>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="44">
+      <c r="Q41" s="54"/>
+      <c r="R41" s="53">
         <f>SUM(R33:S35,R25:S26)</f>
         <v>600</v>
       </c>
-      <c r="S41" s="45"/>
-      <c r="T41" s="44">
+      <c r="S41" s="54"/>
+      <c r="T41" s="53">
         <f>SUM(T33:U35,T25:U26)</f>
         <v>90</v>
       </c>
-      <c r="U41" s="45"/>
-      <c r="V41" s="44">
+      <c r="U41" s="54"/>
+      <c r="V41" s="53">
         <f>SUM(V33:W35,V25:W26)</f>
         <v>44</v>
       </c>
-      <c r="W41" s="45"/>
-      <c r="X41" s="44">
+      <c r="W41" s="54"/>
+      <c r="X41" s="53">
         <f>SUM(X33:Y35,X25:Y26)</f>
         <v>14</v>
       </c>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="44">
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="53">
         <f>SUM(Z33:AA35,Z25:AA26)</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="44">
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="53">
         <f>SUM(AB33:AC35,AB25:AC26)</f>
         <v>30</v>
       </c>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="44">
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="53">
         <f>SUM(AD33:AE35,AD25:AE26)</f>
         <v>46</v>
       </c>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="44">
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="53">
         <f>SUM(AF33:AG35,AF25:AG26)</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="44">
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="53">
         <f>SUM(AH33:AI35,AH25:AI26)</f>
         <v>0</v>
       </c>
-      <c r="AI41" s="45"/>
-      <c r="AJ41" s="44">
+      <c r="AI41" s="54"/>
+      <c r="AJ41" s="53">
         <v>0</v>
       </c>
-      <c r="AK41" s="45"/>
-      <c r="AL41" s="44">
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="53">
         <v>1</v>
       </c>
-      <c r="AM41" s="45"/>
-      <c r="AN41" s="44">
+      <c r="AM41" s="54"/>
+      <c r="AN41" s="53">
         <f>SUM(AN33:AO35,AN25:AO26)</f>
         <v>510</v>
       </c>
-      <c r="AO41" s="45"/>
-      <c r="AP41" s="44">
+      <c r="AO41" s="54"/>
+      <c r="AP41" s="53">
         <f>SUM(AP33:AQ35,AP25:AQ26)</f>
         <v>192</v>
       </c>
-      <c r="AQ41" s="45"/>
-      <c r="AR41" s="44">
+      <c r="AQ41" s="54"/>
+      <c r="AR41" s="53">
         <f>SUM(AR33:AS35,AR25:AS26)</f>
         <v>82</v>
       </c>
-      <c r="AS41" s="45"/>
-      <c r="AT41" s="44">
+      <c r="AS41" s="54"/>
+      <c r="AT41" s="53">
         <f>SUM(AT33:AU35,AT25:AU26)</f>
         <v>68</v>
       </c>
-      <c r="AU41" s="45"/>
-      <c r="AV41" s="44">
+      <c r="AU41" s="54"/>
+      <c r="AV41" s="53">
         <f>SUM(AV33:AW35,AV25:AW26)</f>
         <v>42</v>
       </c>
-      <c r="AW41" s="45"/>
-      <c r="AX41" s="44">
+      <c r="AW41" s="54"/>
+      <c r="AX41" s="53">
         <f>SUM(AX33:AY35,AX25:AY26)</f>
         <v>318</v>
       </c>
-      <c r="AY41" s="45"/>
-      <c r="AZ41" s="44">
+      <c r="AY41" s="54"/>
+      <c r="AZ41" s="53">
         <f>SUM(AZ33:BA35,AZ25:BA26)</f>
         <v>0</v>
       </c>
-      <c r="BA41" s="45"/>
-      <c r="BB41" s="44">
+      <c r="BA41" s="54"/>
+      <c r="BB41" s="53">
         <f>SUM(BB33:BC35,BB25:BC26)</f>
         <v>0</v>
       </c>
-      <c r="BC41" s="45"/>
-      <c r="BD41" s="44">
+      <c r="BC41" s="54"/>
+      <c r="BD41" s="53">
         <v>2</v>
       </c>
-      <c r="BE41" s="45"/>
-      <c r="BF41" s="44">
+      <c r="BE41" s="54"/>
+      <c r="BF41" s="53">
         <v>2</v>
       </c>
-      <c r="BG41" s="45"/>
-      <c r="BH41" s="47"/>
-      <c r="BI41" s="48"/>
+      <c r="BG41" s="54"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="64"/>
     </row>
     <row r="42" spans="1:61" s="5" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
-      <c r="N42" s="155"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="44">
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="53">
         <f>P37</f>
         <v>60</v>
       </c>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="44">
+      <c r="Q42" s="54"/>
+      <c r="R42" s="53">
         <f>R37</f>
         <v>1800</v>
       </c>
-      <c r="S42" s="45"/>
-      <c r="T42" s="44">
+      <c r="S42" s="54"/>
+      <c r="T42" s="53">
         <f>T37</f>
         <v>900</v>
       </c>
-      <c r="U42" s="45"/>
-      <c r="V42" s="44">
+      <c r="U42" s="54"/>
+      <c r="V42" s="53">
         <f>V37</f>
-        <v>358</v>
-      </c>
-      <c r="W42" s="45"/>
-      <c r="X42" s="44">
+        <v>356</v>
+      </c>
+      <c r="W42" s="54"/>
+      <c r="X42" s="53">
         <f>X37</f>
         <v>158</v>
       </c>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="44">
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="53">
         <f>Z37</f>
-        <v>52</v>
-      </c>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="44">
+        <v>50</v>
+      </c>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="53">
         <f>AB37</f>
         <v>148</v>
       </c>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="44">
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="53">
         <f>AD37</f>
-        <v>542</v>
-      </c>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="44">
+        <v>544</v>
+      </c>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="53">
         <f>AF37</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="44">
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="53">
         <f>AH37</f>
         <v>0</v>
       </c>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="44">
+      <c r="AI42" s="54"/>
+      <c r="AJ42" s="53">
         <f>AJ37</f>
         <v>5</v>
       </c>
-      <c r="AK42" s="45"/>
-      <c r="AL42" s="44">
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="53">
         <f>AL37</f>
         <v>3</v>
       </c>
-      <c r="AM42" s="45"/>
-      <c r="AN42" s="44">
+      <c r="AM42" s="54"/>
+      <c r="AN42" s="53">
         <f>AN37</f>
         <v>900</v>
       </c>
-      <c r="AO42" s="45"/>
-      <c r="AP42" s="44">
+      <c r="AO42" s="54"/>
+      <c r="AP42" s="53">
         <f>AP37</f>
         <v>334</v>
       </c>
-      <c r="AQ42" s="45"/>
-      <c r="AR42" s="44">
+      <c r="AQ42" s="54"/>
+      <c r="AR42" s="53">
         <f>AR37</f>
         <v>140</v>
       </c>
-      <c r="AS42" s="45"/>
-      <c r="AT42" s="44">
+      <c r="AS42" s="54"/>
+      <c r="AT42" s="53">
         <f>AT37</f>
         <v>92</v>
       </c>
-      <c r="AU42" s="45"/>
-      <c r="AV42" s="44">
+      <c r="AU42" s="54"/>
+      <c r="AV42" s="53">
         <f>AV37</f>
         <v>102</v>
       </c>
-      <c r="AW42" s="45"/>
-      <c r="AX42" s="44">
+      <c r="AW42" s="54"/>
+      <c r="AX42" s="53">
         <f>AX37</f>
         <v>566</v>
       </c>
-      <c r="AY42" s="45"/>
-      <c r="AZ42" s="44">
+      <c r="AY42" s="54"/>
+      <c r="AZ42" s="53">
         <f>AZ37</f>
         <v>0</v>
       </c>
-      <c r="BA42" s="45"/>
-      <c r="BB42" s="44">
+      <c r="BA42" s="54"/>
+      <c r="BB42" s="53">
         <f>BB37</f>
         <v>0</v>
       </c>
-      <c r="BC42" s="45"/>
-      <c r="BD42" s="44">
+      <c r="BC42" s="54"/>
+      <c r="BD42" s="53">
         <f>BD37</f>
         <v>4</v>
       </c>
-      <c r="BE42" s="45"/>
-      <c r="BF42" s="44">
+      <c r="BE42" s="54"/>
+      <c r="BF42" s="53">
         <f>BF37</f>
         <v>3</v>
       </c>
-      <c r="BG42" s="45"/>
-      <c r="BH42" s="47"/>
-      <c r="BI42" s="48"/>
+      <c r="BG42" s="54"/>
+      <c r="BH42" s="63"/>
+      <c r="BI42" s="64"/>
     </row>
     <row r="43" spans="1:61" s="5" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
@@ -6345,16 +6345,16 @@
       <c r="Z45" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AU45" s="186" t="s">
+      <c r="AU45" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="AV45" s="186"/>
-      <c r="AW45" s="186"/>
-      <c r="AX45" s="186"/>
-      <c r="AY45" s="186"/>
-      <c r="AZ45" s="186"/>
-      <c r="BA45" s="186"/>
-      <c r="BB45" s="186"/>
+      <c r="AV45" s="60"/>
+      <c r="AW45" s="60"/>
+      <c r="AX45" s="60"/>
+      <c r="AY45" s="60"/>
+      <c r="AZ45" s="60"/>
+      <c r="BA45" s="60"/>
+      <c r="BB45" s="60"/>
       <c r="BC45" s="26"/>
       <c r="BD45" s="26"/>
       <c r="BE45" s="27"/>
@@ -6397,128 +6397,329 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="480">
-    <mergeCell ref="AJ22:AK22"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="BF42:BG42"/>
-    <mergeCell ref="BD41:BE41"/>
-    <mergeCell ref="BF41:BG41"/>
-    <mergeCell ref="BD37:BE37"/>
-    <mergeCell ref="BF30:BG30"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="AU45:BB45"/>
-    <mergeCell ref="AX25:AY25"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BC41"/>
-    <mergeCell ref="AZ37:BA37"/>
-    <mergeCell ref="AZ31:BA31"/>
-    <mergeCell ref="AX42:AY42"/>
-    <mergeCell ref="AJ25:AK25"/>
-    <mergeCell ref="BH25:BI25"/>
-    <mergeCell ref="AL25:AM25"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="BD25:BE25"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="BH42:BI42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AT42:AU42"/>
-    <mergeCell ref="AV42:AW42"/>
-    <mergeCell ref="AZ42:BA42"/>
-    <mergeCell ref="BB42:BC42"/>
-    <mergeCell ref="BD42:BE42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="B42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="BH41:BI41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AP41:AQ41"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="B41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="BF21:BG21"/>
-    <mergeCell ref="AL21:AM21"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AZ21:BA21"/>
-    <mergeCell ref="BB21:BC21"/>
-    <mergeCell ref="BD21:BE21"/>
-    <mergeCell ref="AX21:AY21"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="A40:S40"/>
+    <mergeCell ref="T40:AM40"/>
+    <mergeCell ref="AN40:BG40"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AL35:AM35"/>
+    <mergeCell ref="BB37:BC37"/>
+    <mergeCell ref="BF37:BG37"/>
+    <mergeCell ref="BH40:BI40"/>
+    <mergeCell ref="BH35:BI35"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AX35:AY35"/>
+    <mergeCell ref="AZ35:BA35"/>
+    <mergeCell ref="BB35:BC35"/>
+    <mergeCell ref="BD35:BE35"/>
+    <mergeCell ref="AX37:AY37"/>
+    <mergeCell ref="BB36:BC36"/>
+    <mergeCell ref="AV37:AW37"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="BH37:BI37"/>
+    <mergeCell ref="BH36:BI36"/>
+    <mergeCell ref="BF35:BG35"/>
+    <mergeCell ref="AR37:AS37"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="P32:BG32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AL37:AM37"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="BD36:BE36"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="AZ34:BA34"/>
+    <mergeCell ref="BD34:BE34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="AX31:AY31"/>
+    <mergeCell ref="AP33:AQ33"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AR30:AS30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="BH30:BI30"/>
+    <mergeCell ref="BB31:BC31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="BD31:BE31"/>
+    <mergeCell ref="BF31:BG31"/>
+    <mergeCell ref="BH31:BI31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="BH32:BI32"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AP30:AQ30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AP31:AQ31"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="AN31:AO31"/>
+    <mergeCell ref="AR31:AS31"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AZ27:BA27"/>
+    <mergeCell ref="BD27:BE27"/>
+    <mergeCell ref="BB27:BC27"/>
+    <mergeCell ref="BB26:BC26"/>
+    <mergeCell ref="BH24:BI24"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="BH27:BI27"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AX26:AY26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="BH26:BI26"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AZ26:BA26"/>
+    <mergeCell ref="BF27:BG27"/>
+    <mergeCell ref="BF26:BG26"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="P17:BG17"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="P18:BG18"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AJ11:AM12"/>
+    <mergeCell ref="AP12:AQ15"/>
+    <mergeCell ref="AR12:AW12"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:O15"/>
+    <mergeCell ref="V12:W15"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T11:U15"/>
+    <mergeCell ref="AP11:AW11"/>
+    <mergeCell ref="AT13:AU15"/>
+    <mergeCell ref="T10:AM10"/>
+    <mergeCell ref="P11:Q15"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="X13:Y15"/>
+    <mergeCell ref="AD11:AE15"/>
+    <mergeCell ref="AN11:AO15"/>
+    <mergeCell ref="AL13:AM15"/>
+    <mergeCell ref="AB13:AC15"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AJ13:AK15"/>
+    <mergeCell ref="Z13:AA15"/>
+    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AT37:AU37"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="B35:O35"/>
+    <mergeCell ref="AP36:AQ36"/>
+    <mergeCell ref="AR36:AS36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AL36:AM36"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="P28:BG28"/>
+    <mergeCell ref="BB34:BC34"/>
+    <mergeCell ref="AL34:AM34"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AX33:AY33"/>
+    <mergeCell ref="BF23:BG23"/>
+    <mergeCell ref="BD23:BE23"/>
+    <mergeCell ref="BB23:BC23"/>
+    <mergeCell ref="P24:BG24"/>
+    <mergeCell ref="BH21:BI21"/>
+    <mergeCell ref="BH34:BI34"/>
+    <mergeCell ref="BH29:BI29"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AX34:AY34"/>
+    <mergeCell ref="AP34:AQ34"/>
+    <mergeCell ref="AZ33:BA33"/>
+    <mergeCell ref="BH33:BI33"/>
+    <mergeCell ref="BH22:BI22"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="BH23:BI23"/>
+    <mergeCell ref="AZ23:BA23"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="BF34:BG34"/>
+    <mergeCell ref="AR27:AS27"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AP27:AQ27"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AX27:AY27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="BH20:BI20"/>
+    <mergeCell ref="P4:BI4"/>
+    <mergeCell ref="P5:BI5"/>
+    <mergeCell ref="AR13:AS15"/>
+    <mergeCell ref="P8:BI8"/>
+    <mergeCell ref="BH10:BI15"/>
+    <mergeCell ref="AH11:AI15"/>
+    <mergeCell ref="AF11:AG15"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="V11:AC11"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="R11:S15"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="BH18:BI18"/>
+    <mergeCell ref="BH19:BI19"/>
+    <mergeCell ref="BF19:BG19"/>
+    <mergeCell ref="BF20:BG20"/>
+    <mergeCell ref="BF13:BG15"/>
+    <mergeCell ref="AV13:AW15"/>
+    <mergeCell ref="P1:BI2"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="P3:BI3"/>
+    <mergeCell ref="P6:BI6"/>
+    <mergeCell ref="BD11:BG12"/>
+    <mergeCell ref="AX11:AY15"/>
+    <mergeCell ref="AN10:BG10"/>
+    <mergeCell ref="AZ11:BA15"/>
+    <mergeCell ref="BB11:BC15"/>
+    <mergeCell ref="BD13:BE15"/>
+    <mergeCell ref="P7:BI7"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="BH39:BI39"/>
+    <mergeCell ref="AN38:BG38"/>
+    <mergeCell ref="A39:S39"/>
+    <mergeCell ref="T39:AM39"/>
+    <mergeCell ref="AN39:BG39"/>
+    <mergeCell ref="A38:S38"/>
+    <mergeCell ref="T38:AM38"/>
+    <mergeCell ref="BH38:BI38"/>
+    <mergeCell ref="BF36:BG36"/>
+    <mergeCell ref="B34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="B36:O36"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="BB22:BC22"/>
+    <mergeCell ref="BD22:BE22"/>
+    <mergeCell ref="AX19:AY19"/>
+    <mergeCell ref="AZ36:BA36"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="BF25:BG25"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:AY22"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="BD33:BE33"/>
+    <mergeCell ref="BF33:BG33"/>
+    <mergeCell ref="BF22:BG22"/>
+    <mergeCell ref="AX36:AY36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AP35:AQ35"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="BD26:BE26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="BD30:BE30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="BB30:BC30"/>
+    <mergeCell ref="P29:BG29"/>
     <mergeCell ref="AN20:AO20"/>
     <mergeCell ref="AT21:AU21"/>
     <mergeCell ref="AD21:AE21"/>
@@ -6543,340 +6744,139 @@
     <mergeCell ref="AR20:AS20"/>
     <mergeCell ref="AZ19:BA19"/>
     <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="BB22:BC22"/>
-    <mergeCell ref="BD22:BE22"/>
-    <mergeCell ref="AX19:AY19"/>
-    <mergeCell ref="AZ36:BA36"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="BF25:BG25"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:AY22"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="BD33:BE33"/>
-    <mergeCell ref="BF33:BG33"/>
-    <mergeCell ref="BF22:BG22"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="BH39:BI39"/>
-    <mergeCell ref="AN38:BG38"/>
-    <mergeCell ref="A39:S39"/>
-    <mergeCell ref="T39:AM39"/>
-    <mergeCell ref="AN39:BG39"/>
-    <mergeCell ref="A38:S38"/>
-    <mergeCell ref="T38:AM38"/>
-    <mergeCell ref="BH38:BI38"/>
-    <mergeCell ref="BF36:BG36"/>
-    <mergeCell ref="B34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="B36:O36"/>
-    <mergeCell ref="P1:BI2"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="P3:BI3"/>
-    <mergeCell ref="P6:BI6"/>
-    <mergeCell ref="BD11:BG12"/>
-    <mergeCell ref="AX11:AY15"/>
-    <mergeCell ref="AN10:BG10"/>
-    <mergeCell ref="AZ11:BA15"/>
-    <mergeCell ref="BB11:BC15"/>
-    <mergeCell ref="BD13:BE15"/>
-    <mergeCell ref="BH20:BI20"/>
-    <mergeCell ref="P4:BI4"/>
-    <mergeCell ref="P5:BI5"/>
-    <mergeCell ref="AR13:AS15"/>
-    <mergeCell ref="P8:BI8"/>
-    <mergeCell ref="BH10:BI15"/>
-    <mergeCell ref="AH11:AI15"/>
-    <mergeCell ref="AF11:AG15"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="BH21:BI21"/>
-    <mergeCell ref="BH34:BI34"/>
-    <mergeCell ref="BH29:BI29"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AX34:AY34"/>
-    <mergeCell ref="AP34:AQ34"/>
-    <mergeCell ref="AZ33:BA33"/>
-    <mergeCell ref="BH33:BI33"/>
-    <mergeCell ref="BH22:BI22"/>
-    <mergeCell ref="V11:AC11"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="R23:S23"/>
     <mergeCell ref="B20:O20"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="R11:S15"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="P28:BG28"/>
-    <mergeCell ref="BB34:BC34"/>
-    <mergeCell ref="AL34:AM34"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="AH34:AI34"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AJ35:AK35"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AT37:AU37"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="B37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="B35:O35"/>
-    <mergeCell ref="AX36:AY36"/>
-    <mergeCell ref="AP36:AQ36"/>
-    <mergeCell ref="AR36:AS36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AL36:AM36"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AY33"/>
-    <mergeCell ref="BF23:BG23"/>
-    <mergeCell ref="BD23:BE23"/>
-    <mergeCell ref="BB23:BC23"/>
-    <mergeCell ref="P24:BG24"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AJ11:AM12"/>
-    <mergeCell ref="AP12:AQ15"/>
-    <mergeCell ref="AR12:AW12"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:O15"/>
-    <mergeCell ref="V12:W15"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T11:U15"/>
-    <mergeCell ref="AP11:AW11"/>
-    <mergeCell ref="AT13:AU15"/>
-    <mergeCell ref="T10:AM10"/>
-    <mergeCell ref="P11:Q15"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="X13:Y15"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="BH18:BI18"/>
-    <mergeCell ref="AD11:AE15"/>
-    <mergeCell ref="AN11:AO15"/>
-    <mergeCell ref="AL13:AM15"/>
-    <mergeCell ref="AB13:AC15"/>
-    <mergeCell ref="BH23:BI23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AZ23:BA23"/>
-    <mergeCell ref="AJ13:AK15"/>
-    <mergeCell ref="BH19:BI19"/>
-    <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="BF19:BG19"/>
-    <mergeCell ref="BF20:BG20"/>
-    <mergeCell ref="BF13:BG15"/>
-    <mergeCell ref="Z13:AA15"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="AV13:AW15"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="P17:BG17"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="BD20:BE20"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AZ20:BA20"/>
-    <mergeCell ref="BF34:BG34"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AR27:AS27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AR34:AS34"/>
-    <mergeCell ref="AP35:AQ35"/>
     <mergeCell ref="B30:O30"/>
     <mergeCell ref="B24:O24"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="AL27:AM27"/>
     <mergeCell ref="B26:O26"/>
     <mergeCell ref="B29:O29"/>
     <mergeCell ref="B27:O27"/>
     <mergeCell ref="B31:O31"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AP27:AQ27"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="P18:BG18"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AJ23:AK23"/>
-    <mergeCell ref="AX27:AY27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="BD26:BE26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AZ27:BA27"/>
-    <mergeCell ref="BD27:BE27"/>
-    <mergeCell ref="BB27:BC27"/>
-    <mergeCell ref="BB26:BC26"/>
-    <mergeCell ref="BH24:BI24"/>
-    <mergeCell ref="AN27:AO27"/>
-    <mergeCell ref="BH27:BI27"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AX26:AY26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="BH26:BI26"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AZ26:BA26"/>
-    <mergeCell ref="BD30:BE30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="BB30:BC30"/>
-    <mergeCell ref="P29:BG29"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="BF27:BG27"/>
-    <mergeCell ref="BF26:BG26"/>
-    <mergeCell ref="BH32:BI32"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AP30:AQ30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AP31:AQ31"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="AL31:AM31"/>
-    <mergeCell ref="AN31:AO31"/>
-    <mergeCell ref="AR31:AS31"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AR30:AS30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="BH30:BI30"/>
-    <mergeCell ref="BB31:BC31"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="BD31:BE31"/>
-    <mergeCell ref="BF31:BG31"/>
-    <mergeCell ref="BH31:BI31"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="BF21:BG21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AZ21:BA21"/>
+    <mergeCell ref="BB21:BC21"/>
+    <mergeCell ref="BD21:BE21"/>
+    <mergeCell ref="AX21:AY21"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="BH41:BI41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AP41:AQ41"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="BH42:BI42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AT42:AU42"/>
+    <mergeCell ref="AV42:AW42"/>
+    <mergeCell ref="AZ42:BA42"/>
+    <mergeCell ref="BB42:BC42"/>
+    <mergeCell ref="BD42:BE42"/>
+    <mergeCell ref="BH25:BI25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="AN25:AO25"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="BD25:BE25"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AU45:BB45"/>
+    <mergeCell ref="AX25:AY25"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BC41"/>
+    <mergeCell ref="AZ37:BA37"/>
+    <mergeCell ref="AZ31:BA31"/>
+    <mergeCell ref="AX42:AY42"/>
     <mergeCell ref="BB33:BC33"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="AX31:AY31"/>
-    <mergeCell ref="AP33:AQ33"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="P32:BG32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="AL33:AM33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AL37:AM37"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="BD36:BE36"/>
-    <mergeCell ref="A40:S40"/>
-    <mergeCell ref="T40:AM40"/>
-    <mergeCell ref="AN40:BG40"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AL35:AM35"/>
-    <mergeCell ref="BB37:BC37"/>
-    <mergeCell ref="BF37:BG37"/>
-    <mergeCell ref="BH40:BI40"/>
-    <mergeCell ref="BH35:BI35"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AX35:AY35"/>
-    <mergeCell ref="AZ35:BA35"/>
-    <mergeCell ref="BB35:BC35"/>
-    <mergeCell ref="BD35:BE35"/>
-    <mergeCell ref="AX37:AY37"/>
-    <mergeCell ref="BB36:BC36"/>
-    <mergeCell ref="AV37:AW37"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="P7:BI7"/>
-    <mergeCell ref="BH37:BI37"/>
-    <mergeCell ref="BH36:BI36"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="BF35:BG35"/>
-    <mergeCell ref="AZ34:BA34"/>
-    <mergeCell ref="BD34:BE34"/>
-    <mergeCell ref="AR37:AS37"/>
-    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="BF42:BG42"/>
+    <mergeCell ref="BD41:BE41"/>
+    <mergeCell ref="BF41:BG41"/>
+    <mergeCell ref="BD37:BE37"/>
+    <mergeCell ref="BF30:BG30"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="B41:O41"/>
+    <mergeCell ref="AJ22:AK22"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AH22:AI22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
